--- a/BackTest/2019-10-22 BackTest BAT.xlsx
+++ b/BackTest/2019-10-22 BackTest BAT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>13</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>69.23076923076923</v>
+      </c>
       <c r="L12" t="n">
         <v>265.6</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>13</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>63.63636363636363</v>
+      </c>
       <c r="L13" t="n">
         <v>266.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>14</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>55.55555555555556</v>
+      </c>
       <c r="L14" t="n">
         <v>267.3</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>14</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>55.55555555555556</v>
+      </c>
       <c r="L15" t="n">
         <v>267.8</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>17</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>16.66666666666666</v>
+      </c>
       <c r="L16" t="n">
         <v>268</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>17</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>268.2</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>18</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>268.1</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>20</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-55.55555555555556</v>
+      </c>
       <c r="L19" t="n">
         <v>267.9</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>22</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-20</v>
+      </c>
       <c r="L20" t="n">
         <v>267.6</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>24</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L21" t="n">
         <v>267.6</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>24</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L22" t="n">
         <v>267.5</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>26</v>
       </c>
       <c r="K23" t="n">
-        <v>38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>267.6</v>
@@ -1466,7 +1488,7 @@
         <v>27</v>
       </c>
       <c r="K24" t="n">
-        <v>28</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L24" t="n">
         <v>267.5</v>
@@ -1515,7 +1537,7 @@
         <v>29</v>
       </c>
       <c r="K25" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>267.6</v>
@@ -1564,7 +1586,7 @@
         <v>30</v>
       </c>
       <c r="K26" t="n">
-        <v>28</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L26" t="n">
         <v>268.1</v>
@@ -1613,7 +1635,7 @@
         <v>32</v>
       </c>
       <c r="K27" t="n">
-        <v>18.51851851851852</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L27" t="n">
         <v>268.4</v>
@@ -1662,7 +1684,7 @@
         <v>34</v>
       </c>
       <c r="K28" t="n">
-        <v>3.703703703703703</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L28" t="n">
         <v>268.6</v>
@@ -1711,7 +1733,7 @@
         <v>36</v>
       </c>
       <c r="K29" t="n">
-        <v>14.28571428571428</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L29" t="n">
         <v>269.2</v>
@@ -1760,7 +1782,7 @@
         <v>37</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L30" t="n">
         <v>269.5</v>
@@ -1809,7 +1831,7 @@
         <v>38</v>
       </c>
       <c r="K31" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L31" t="n">
         <v>269.7</v>
@@ -1860,7 +1882,7 @@
         <v>38</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>269.9</v>
@@ -1911,7 +1933,7 @@
         <v>39</v>
       </c>
       <c r="K33" t="n">
-        <v>7.692307692307693</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L33" t="n">
         <v>270</v>
@@ -1962,7 +1984,7 @@
         <v>40</v>
       </c>
       <c r="K34" t="n">
-        <v>7.692307692307693</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L34" t="n">
         <v>270.3</v>
@@ -2013,7 +2035,7 @@
         <v>40</v>
       </c>
       <c r="K35" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>270.4</v>
@@ -2064,7 +2086,7 @@
         <v>40</v>
       </c>
       <c r="K36" t="n">
-        <v>21.73913043478261</v>
+        <v>25</v>
       </c>
       <c r="L36" t="n">
         <v>270.4</v>
@@ -2115,7 +2137,7 @@
         <v>41</v>
       </c>
       <c r="K37" t="n">
-        <v>25</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L37" t="n">
         <v>270.7</v>
@@ -2166,7 +2188,7 @@
         <v>41</v>
       </c>
       <c r="K38" t="n">
-        <v>30.43478260869566</v>
+        <v>60</v>
       </c>
       <c r="L38" t="n">
         <v>271.2</v>
@@ -2217,7 +2239,7 @@
         <v>41</v>
       </c>
       <c r="K39" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L39" t="n">
         <v>271.5</v>
@@ -2268,7 +2290,7 @@
         <v>41</v>
       </c>
       <c r="K40" t="n">
-        <v>36.84210526315789</v>
+        <v>100</v>
       </c>
       <c r="L40" t="n">
         <v>271.9</v>
@@ -2319,7 +2341,7 @@
         <v>43</v>
       </c>
       <c r="K41" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L41" t="n">
         <v>272</v>
@@ -2370,7 +2392,7 @@
         <v>45</v>
       </c>
       <c r="K42" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>272.3</v>
@@ -2421,7 +2443,7 @@
         <v>45</v>
       </c>
       <c r="K43" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L43" t="n">
         <v>272.5</v>
@@ -2472,7 +2494,7 @@
         <v>45</v>
       </c>
       <c r="K44" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L44" t="n">
         <v>272.6</v>
@@ -2523,7 +2545,7 @@
         <v>46</v>
       </c>
       <c r="K45" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>272.8</v>
@@ -2574,7 +2596,7 @@
         <v>46</v>
       </c>
       <c r="K46" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L46" t="n">
         <v>273</v>
@@ -2625,7 +2647,7 @@
         <v>46</v>
       </c>
       <c r="K47" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L47" t="n">
         <v>273.1</v>
@@ -2676,7 +2698,7 @@
         <v>47</v>
       </c>
       <c r="K48" t="n">
-        <v>53.84615384615385</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>273.3</v>
@@ -2727,7 +2749,7 @@
         <v>48</v>
       </c>
       <c r="K49" t="n">
-        <v>50</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L49" t="n">
         <v>273.6</v>
@@ -2778,7 +2800,7 @@
         <v>48</v>
       </c>
       <c r="K50" t="n">
-        <v>63.63636363636363</v>
+        <v>100</v>
       </c>
       <c r="L50" t="n">
         <v>273.9</v>
@@ -2829,7 +2851,7 @@
         <v>48</v>
       </c>
       <c r="K51" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L51" t="n">
         <v>274.4</v>
@@ -2880,7 +2902,7 @@
         <v>48</v>
       </c>
       <c r="K52" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
         <v>274.7</v>
@@ -2931,7 +2953,7 @@
         <v>48</v>
       </c>
       <c r="K53" t="n">
-        <v>55.55555555555556</v>
+        <v>100</v>
       </c>
       <c r="L53" t="n">
         <v>275</v>
@@ -2982,7 +3004,7 @@
         <v>48</v>
       </c>
       <c r="K54" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L54" t="n">
         <v>275.3</v>
@@ -3033,7 +3055,7 @@
         <v>48</v>
       </c>
       <c r="K55" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L55" t="n">
         <v>275.5</v>
@@ -3135,7 +3157,7 @@
         <v>49</v>
       </c>
       <c r="K57" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>275.7</v>
@@ -3186,7 +3208,7 @@
         <v>49</v>
       </c>
       <c r="K58" t="n">
-        <v>25</v>
+        <v>-100</v>
       </c>
       <c r="L58" t="n">
         <v>275.7</v>
@@ -3237,7 +3259,7 @@
         <v>52</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L59" t="n">
         <v>275.3</v>
@@ -3288,7 +3310,7 @@
         <v>52</v>
       </c>
       <c r="K60" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L60" t="n">
         <v>274.9</v>
@@ -3339,7 +3361,7 @@
         <v>52</v>
       </c>
       <c r="K61" t="n">
-        <v>11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L61" t="n">
         <v>274.5</v>
@@ -3390,7 +3412,7 @@
         <v>52</v>
       </c>
       <c r="K62" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L62" t="n">
         <v>274.1</v>
@@ -3441,7 +3463,7 @@
         <v>52</v>
       </c>
       <c r="K63" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L63" t="n">
         <v>273.7</v>
@@ -3492,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="K64" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L64" t="n">
         <v>273.3</v>
@@ -3543,7 +3565,7 @@
         <v>52</v>
       </c>
       <c r="K65" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L65" t="n">
         <v>272.9</v>
@@ -3594,7 +3616,7 @@
         <v>52</v>
       </c>
       <c r="K66" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L66" t="n">
         <v>272.6</v>
@@ -3645,7 +3667,7 @@
         <v>52</v>
       </c>
       <c r="K67" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L67" t="n">
         <v>272.3</v>
@@ -3695,9 +3717,7 @@
       <c r="J68" t="n">
         <v>52</v>
       </c>
-      <c r="K68" t="n">
-        <v>-60</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>272</v>
       </c>
@@ -3746,9 +3766,7 @@
       <c r="J69" t="n">
         <v>52</v>
       </c>
-      <c r="K69" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>272</v>
       </c>
@@ -3797,9 +3815,7 @@
       <c r="J70" t="n">
         <v>52</v>
       </c>
-      <c r="K70" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>272</v>
       </c>
@@ -3848,9 +3864,7 @@
       <c r="J71" t="n">
         <v>52</v>
       </c>
-      <c r="K71" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>272</v>
       </c>
@@ -3900,7 +3914,7 @@
         <v>54</v>
       </c>
       <c r="K72" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L72" t="n">
         <v>272.2</v>
@@ -3951,7 +3965,7 @@
         <v>54</v>
       </c>
       <c r="K73" t="n">
-        <v>-33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L73" t="n">
         <v>272.4</v>
@@ -4002,7 +4016,7 @@
         <v>55</v>
       </c>
       <c r="K74" t="n">
-        <v>-42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>272.5</v>
@@ -4053,7 +4067,7 @@
         <v>57</v>
       </c>
       <c r="K75" t="n">
-        <v>-11.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="L75" t="n">
         <v>272.8</v>
@@ -4104,7 +4118,7 @@
         <v>58</v>
       </c>
       <c r="K76" t="n">
-        <v>11.11111111111111</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L76" t="n">
         <v>273.2</v>
@@ -4155,7 +4169,7 @@
         <v>59</v>
       </c>
       <c r="K77" t="n">
-        <v>20</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L77" t="n">
         <v>273.7</v>
@@ -4206,7 +4220,7 @@
         <v>59</v>
       </c>
       <c r="K78" t="n">
-        <v>20</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L78" t="n">
         <v>274.2</v>
@@ -4359,7 +4373,7 @@
         <v>63</v>
       </c>
       <c r="K81" t="n">
-        <v>63.63636363636363</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L81" t="n">
         <v>276</v>
@@ -4410,7 +4424,7 @@
         <v>64</v>
       </c>
       <c r="K82" t="n">
-        <v>66.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L82" t="n">
         <v>276.6</v>
@@ -4461,7 +4475,7 @@
         <v>65</v>
       </c>
       <c r="K83" t="n">
-        <v>69.23076923076923</v>
+        <v>80</v>
       </c>
       <c r="L83" t="n">
         <v>277.3</v>
@@ -4512,7 +4526,7 @@
         <v>66</v>
       </c>
       <c r="K84" t="n">
-        <v>57.14285714285714</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L84" t="n">
         <v>278</v>
@@ -4563,7 +4577,7 @@
         <v>66</v>
       </c>
       <c r="K85" t="n">
-        <v>57.14285714285714</v>
+        <v>50</v>
       </c>
       <c r="L85" t="n">
         <v>278.5</v>
@@ -4614,7 +4628,7 @@
         <v>67</v>
       </c>
       <c r="K86" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L86" t="n">
         <v>279</v>
@@ -4665,7 +4679,7 @@
         <v>67</v>
       </c>
       <c r="K87" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L87" t="n">
         <v>279.4</v>
@@ -4716,7 +4730,7 @@
         <v>67</v>
       </c>
       <c r="K88" t="n">
-        <v>60</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L88" t="n">
         <v>279.8</v>
@@ -4767,7 +4781,7 @@
         <v>67</v>
       </c>
       <c r="K89" t="n">
-        <v>60</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L89" t="n">
         <v>280.1</v>
@@ -4818,7 +4832,7 @@
         <v>67</v>
       </c>
       <c r="K90" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L90" t="n">
         <v>280.5</v>
@@ -4869,7 +4883,7 @@
         <v>68</v>
       </c>
       <c r="K91" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>280.6</v>
@@ -4920,7 +4934,7 @@
         <v>69</v>
       </c>
       <c r="K92" t="n">
-        <v>46.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>280.7</v>
@@ -5022,7 +5036,7 @@
         <v>70</v>
       </c>
       <c r="K94" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L94" t="n">
         <v>281</v>
@@ -5073,7 +5087,7 @@
         <v>74</v>
       </c>
       <c r="K95" t="n">
-        <v>17.64705882352941</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L95" t="n">
         <v>280.8</v>
@@ -5124,7 +5138,7 @@
         <v>75</v>
       </c>
       <c r="K96" t="n">
-        <v>5.88235294117647</v>
+        <v>-50</v>
       </c>
       <c r="L96" t="n">
         <v>280.4</v>
@@ -5175,7 +5189,7 @@
         <v>75</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L97" t="n">
         <v>280</v>
@@ -5226,7 +5240,7 @@
         <v>75</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L98" t="n">
         <v>279.6</v>
@@ -5277,7 +5291,7 @@
         <v>76</v>
       </c>
       <c r="K99" t="n">
-        <v>-12.5</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L99" t="n">
         <v>279.1</v>

--- a/BackTest/2019-10-22 BackTest BAT.xlsx
+++ b/BackTest/2019-10-22 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S99"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,37 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C2" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D2" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E2" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F2" t="n">
-        <v>780</v>
+        <v>6464.5886</v>
       </c>
       <c r="G2" t="n">
-        <v>254.65</v>
+        <v>60</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,41 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C3" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D3" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E3" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F3" t="n">
-        <v>2135.6551</v>
+        <v>46</v>
       </c>
       <c r="G3" t="n">
-        <v>254.75</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
+        <v>255</v>
+      </c>
+      <c r="K3" t="n">
+        <v>255</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +507,41 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C4" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D4" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E4" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F4" t="n">
-        <v>5839.0711</v>
+        <v>19.2957</v>
       </c>
       <c r="G4" t="n">
-        <v>254.8833333333333</v>
+        <v>60</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>255</v>
+      </c>
+      <c r="K4" t="n">
+        <v>255</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,41 +550,41 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C5" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D5" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E5" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F5" t="n">
-        <v>27993.1517</v>
+        <v>3386.1727</v>
       </c>
       <c r="G5" t="n">
-        <v>255.0833333333333</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+        <v>257</v>
+      </c>
+      <c r="K5" t="n">
+        <v>255</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +593,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C6" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D6" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E6" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F6" t="n">
-        <v>8000</v>
+        <v>37.9803</v>
       </c>
       <c r="G6" t="n">
-        <v>255.2833333333333</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>256</v>
+      </c>
+      <c r="K6" t="n">
+        <v>256</v>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +632,41 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C7" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D7" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E7" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F7" t="n">
-        <v>4626.2351</v>
+        <v>3140.0581</v>
       </c>
       <c r="G7" t="n">
-        <v>255.5333333333333</v>
+        <v>80</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>257</v>
+      </c>
+      <c r="K7" t="n">
+        <v>256</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,41 +675,41 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C8" t="n">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D8" t="n">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E8" t="n">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F8" t="n">
-        <v>13078.6177</v>
+        <v>9732.184300000001</v>
       </c>
       <c r="G8" t="n">
-        <v>255.75</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+        <v>258</v>
+      </c>
+      <c r="K8" t="n">
+        <v>256</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,41 +718,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C9" t="n">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D9" t="n">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E9" t="n">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F9" t="n">
-        <v>3600</v>
+        <v>99.75</v>
       </c>
       <c r="G9" t="n">
-        <v>255.9666666666667</v>
+        <v>40</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
+        <v>256</v>
+      </c>
+      <c r="K9" t="n">
+        <v>256</v>
+      </c>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,41 +757,41 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C10" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D10" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E10" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F10" t="n">
-        <v>9706.5694</v>
+        <v>39.0054</v>
       </c>
       <c r="G10" t="n">
-        <v>256.25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>11</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>256</v>
+      </c>
+      <c r="K10" t="n">
+        <v>256</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,43 +800,41 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C11" t="n">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D11" t="n">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E11" t="n">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F11" t="n">
-        <v>975.1674</v>
+        <v>3140.0581</v>
       </c>
       <c r="G11" t="n">
-        <v>256.5166666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>264.7</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>257</v>
+      </c>
+      <c r="K11" t="n">
+        <v>256</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,45 +843,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C12" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D12" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E12" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F12" t="n">
-        <v>107</v>
+        <v>1016</v>
       </c>
       <c r="G12" t="n">
-        <v>256.8</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>13</v>
+        <v>256</v>
       </c>
       <c r="K12" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L12" t="n">
-        <v>265.6</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>256</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,45 +882,41 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C13" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D13" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E13" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F13" t="n">
-        <v>605.6423</v>
+        <v>234.1599</v>
       </c>
       <c r="G13" t="n">
-        <v>257.0833333333333</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>13</v>
+        <v>258</v>
       </c>
       <c r="K13" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L13" t="n">
-        <v>266.5</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>256</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,45 +925,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C14" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D14" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E14" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F14" t="n">
-        <v>13562.0761</v>
+        <v>1767</v>
       </c>
       <c r="G14" t="n">
-        <v>257.4</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="K14" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L14" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>256</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,45 +968,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C15" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D15" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E15" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F15" t="n">
-        <v>1414.6421</v>
+        <v>2755.3248</v>
       </c>
       <c r="G15" t="n">
-        <v>257.7</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="K15" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L15" t="n">
-        <v>267.8</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>258</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,45 +1007,41 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C16" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D16" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E16" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F16" t="n">
-        <v>5870.2571</v>
+        <v>2063.5</v>
       </c>
       <c r="G16" t="n">
-        <v>257.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="K16" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L16" t="n">
-        <v>268</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>258</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,45 +1050,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C17" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D17" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E17" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F17" t="n">
-        <v>5251.7265</v>
+        <v>11718.4085</v>
       </c>
       <c r="G17" t="n">
-        <v>258.2333333333333</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>17</v>
+        <v>258</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>268.2</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>258</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,45 +1093,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C18" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D18" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E18" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F18" t="n">
-        <v>5910.0907</v>
+        <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>258.5</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>268.1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>258</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1220,45 +1132,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C19" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D19" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E19" t="n">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F19" t="n">
-        <v>23089.0073</v>
+        <v>1445.6995</v>
       </c>
       <c r="G19" t="n">
-        <v>258.75</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>20</v>
+        <v>260</v>
       </c>
       <c r="K19" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L19" t="n">
-        <v>267.9</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>258</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,45 +1175,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C20" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D20" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E20" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F20" t="n">
-        <v>1231.9479</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>259.0166666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="K20" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L20" t="n">
-        <v>267.6</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>258</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1218,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C21" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D21" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E21" t="n">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F21" t="n">
-        <v>2317.5711</v>
+        <v>605.6423</v>
       </c>
       <c r="G21" t="n">
-        <v>259.3166666666667</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>24</v>
+        <v>257</v>
       </c>
       <c r="K21" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L21" t="n">
-        <v>267.6</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>266.15</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1257,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C22" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D22" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E22" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F22" t="n">
-        <v>1415.7024</v>
+        <v>3026.9348</v>
       </c>
       <c r="G22" t="n">
-        <v>259.6333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>24</v>
+        <v>260</v>
       </c>
       <c r="K22" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L22" t="n">
-        <v>267.5</v>
+        <v>257</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>266.55</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1300,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C23" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D23" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E23" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F23" t="n">
-        <v>1521.5364</v>
+        <v>802.5363</v>
       </c>
       <c r="G23" t="n">
-        <v>259.9833333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>26</v>
+        <v>261</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>267.6</v>
+        <v>257</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>267.05</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1343,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C24" t="n">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D24" t="n">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="E24" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F24" t="n">
-        <v>3318.4093</v>
+        <v>2099.9808</v>
       </c>
       <c r="G24" t="n">
-        <v>260.3</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="K24" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L24" t="n">
-        <v>267.5</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>267.4</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,47 +1382,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="C25" t="n">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D25" t="n">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E25" t="n">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F25" t="n">
-        <v>2972.4169</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>260.6333333333333</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>29</v>
+        <v>261</v>
       </c>
       <c r="K25" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L25" t="n">
-        <v>267.6</v>
+        <v>261</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>267.7</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,47 +1425,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C26" t="n">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D26" t="n">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="E26" t="n">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="F26" t="n">
-        <v>1277.8382</v>
+        <v>1095.3065</v>
       </c>
       <c r="G26" t="n">
-        <v>261.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="K26" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L26" t="n">
-        <v>268.1</v>
+        <v>261</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>268.05</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,47 +1468,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C27" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D27" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E27" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F27" t="n">
-        <v>118.0297</v>
+        <v>3026.9348</v>
       </c>
       <c r="G27" t="n">
-        <v>261.35</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c r="K27" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L27" t="n">
-        <v>268.4</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>268.3</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,47 +1507,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C28" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D28" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E28" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F28" t="n">
-        <v>1274.6436</v>
+        <v>3137.6287</v>
       </c>
       <c r="G28" t="n">
-        <v>261.65</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="K28" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L28" t="n">
-        <v>268.6</v>
+        <v>258</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>268.35</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,47 +1550,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C29" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D29" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E29" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F29" t="n">
-        <v>2437.5148</v>
+        <v>2011</v>
       </c>
       <c r="G29" t="n">
-        <v>261.9666666666666</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="K29" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L29" t="n">
-        <v>269.2</v>
+        <v>258</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>268.55</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,47 +1593,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C30" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D30" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E30" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F30" t="n">
-        <v>23.8037</v>
+        <v>233</v>
       </c>
       <c r="G30" t="n">
-        <v>262.25</v>
+        <v>-60</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="K30" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L30" t="n">
-        <v>269.5</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>268.55</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,49 +1632,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C31" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D31" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E31" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6731</v>
+        <v>3218.6104</v>
       </c>
       <c r="G31" t="n">
-        <v>262.5166666666667</v>
+        <v>-100</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="K31" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L31" t="n">
-        <v>269.7</v>
+        <v>257</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>268.65</v>
-      </c>
-      <c r="N31" t="n">
-        <v>267.3333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1855,49 +1675,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C32" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D32" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E32" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F32" t="n">
-        <v>2070.8572</v>
+        <v>780</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>269.9</v>
+        <v>257</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>268.7</v>
-      </c>
-      <c r="N32" t="n">
-        <v>267.6666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,49 +1718,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C33" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D33" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E33" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F33" t="n">
-        <v>1593.5873</v>
+        <v>2135.6551</v>
       </c>
       <c r="G33" t="n">
-        <v>263.0333333333334</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>39</v>
+        <v>260</v>
       </c>
       <c r="K33" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L33" t="n">
-        <v>270</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>268.8</v>
-      </c>
-      <c r="N33" t="n">
-        <v>268.0333333333334</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,49 +1757,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C34" t="n">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D34" t="n">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E34" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F34" t="n">
-        <v>4306.9038</v>
+        <v>5839.0711</v>
       </c>
       <c r="G34" t="n">
-        <v>263.2833333333334</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="K34" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L34" t="n">
-        <v>270.3</v>
+        <v>260</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>268.9</v>
-      </c>
-      <c r="N34" t="n">
-        <v>268.3666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,49 +1800,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C35" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D35" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E35" t="n">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F35" t="n">
-        <v>1077.6849</v>
+        <v>27993.1517</v>
       </c>
       <c r="G35" t="n">
-        <v>263.55</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>270.4</v>
+        <v>260</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>269</v>
-      </c>
-      <c r="N35" t="n">
-        <v>268.6</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,49 +1843,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C36" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D36" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E36" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F36" t="n">
-        <v>127.729</v>
+        <v>8000</v>
       </c>
       <c r="G36" t="n">
-        <v>263.8</v>
+        <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="K36" t="n">
-        <v>25</v>
-      </c>
-      <c r="L36" t="n">
-        <v>270.4</v>
+        <v>260</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>269.25</v>
-      </c>
-      <c r="N36" t="n">
-        <v>268.8333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,49 +1886,41 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C37" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D37" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E37" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F37" t="n">
-        <v>11008.4468</v>
+        <v>4626.2351</v>
       </c>
       <c r="G37" t="n">
-        <v>264.05</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="K37" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L37" t="n">
-        <v>270.7</v>
+        <v>260</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>269.55</v>
-      </c>
-      <c r="N37" t="n">
-        <v>269.1</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,49 +1929,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C38" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D38" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E38" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F38" t="n">
-        <v>1048.8278</v>
+        <v>13078.6177</v>
       </c>
       <c r="G38" t="n">
-        <v>264.3333333333333</v>
+        <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="K38" t="n">
-        <v>60</v>
-      </c>
-      <c r="L38" t="n">
-        <v>271.2</v>
+        <v>260</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>269.9</v>
-      </c>
-      <c r="N38" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,49 +1972,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C39" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D39" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E39" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F39" t="n">
-        <v>133.2689</v>
+        <v>3600</v>
       </c>
       <c r="G39" t="n">
-        <v>264.6166666666667</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>41</v>
+        <v>267</v>
       </c>
       <c r="K39" t="n">
-        <v>100</v>
-      </c>
-      <c r="L39" t="n">
-        <v>271.5</v>
+        <v>260</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>270.35</v>
-      </c>
-      <c r="N39" t="n">
-        <v>269.5333333333334</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,49 +2015,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C40" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D40" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E40" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F40" t="n">
-        <v>8358.771000000001</v>
+        <v>9706.5694</v>
       </c>
       <c r="G40" t="n">
-        <v>264.8833333333333</v>
+        <v>85.71428571428571</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="K40" t="n">
-        <v>100</v>
-      </c>
-      <c r="L40" t="n">
-        <v>271.9</v>
+        <v>260</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>270.7</v>
-      </c>
-      <c r="N40" t="n">
-        <v>269.6666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,49 +2058,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C41" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D41" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E41" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F41" t="n">
-        <v>3391.0265</v>
+        <v>975.1674</v>
       </c>
       <c r="G41" t="n">
-        <v>265.1333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>43</v>
+        <v>269</v>
       </c>
       <c r="K41" t="n">
-        <v>20</v>
-      </c>
-      <c r="L41" t="n">
-        <v>272</v>
+        <v>260</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>270.85</v>
-      </c>
-      <c r="N41" t="n">
-        <v>269.7666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2365,49 +2101,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C42" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D42" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E42" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F42" t="n">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="G42" t="n">
-        <v>265.3833333333333</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="K42" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L42" t="n">
-        <v>272.3</v>
+        <v>260</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>271.1</v>
-      </c>
-      <c r="N42" t="n">
-        <v>269.9</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,49 +2144,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C43" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D43" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E43" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F43" t="n">
-        <v>21.242</v>
+        <v>605.6423</v>
       </c>
       <c r="G43" t="n">
-        <v>265.6333333333333</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="K43" t="n">
-        <v>20</v>
-      </c>
-      <c r="L43" t="n">
-        <v>272.5</v>
+        <v>260</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>271.25</v>
-      </c>
-      <c r="N43" t="n">
-        <v>270.0333333333334</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,49 +2187,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C44" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D44" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E44" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F44" t="n">
-        <v>103.2346</v>
+        <v>13562.0761</v>
       </c>
       <c r="G44" t="n">
-        <v>265.8833333333333</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="K44" t="n">
-        <v>20</v>
-      </c>
-      <c r="L44" t="n">
-        <v>272.6</v>
+        <v>260</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>271.45</v>
-      </c>
-      <c r="N44" t="n">
-        <v>270.1333333333333</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,50 +2230,42 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C45" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D45" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E45" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F45" t="n">
-        <v>4011.8061</v>
+        <v>1414.6421</v>
       </c>
       <c r="G45" t="n">
-        <v>266.15</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="K45" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L45" t="n">
-        <v>272.8</v>
+        <v>260</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>271.6</v>
-      </c>
-      <c r="N45" t="n">
-        <v>270.2666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
-        <v>1</v>
+        <v>1.033461538461539</v>
       </c>
     </row>
     <row r="46">
@@ -2569,49 +2273,41 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C46" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D46" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E46" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F46" t="n">
-        <v>8122.8834</v>
+        <v>5870.2571</v>
       </c>
       <c r="G46" t="n">
-        <v>266.4166666666667</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="K46" t="n">
-        <v>20</v>
-      </c>
-      <c r="L46" t="n">
-        <v>273</v>
+        <v>270</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>271.7</v>
-      </c>
-      <c r="N46" t="n">
-        <v>270.5</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,49 +2316,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C47" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D47" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E47" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F47" t="n">
-        <v>600.0974</v>
+        <v>5251.7265</v>
       </c>
       <c r="G47" t="n">
-        <v>266.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c r="K47" t="n">
-        <v>20</v>
-      </c>
-      <c r="L47" t="n">
-        <v>273.1</v>
+        <v>270</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>271.9</v>
-      </c>
-      <c r="N47" t="n">
-        <v>270.7333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,49 +2359,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C48" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D48" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E48" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F48" t="n">
-        <v>7771.2602</v>
+        <v>5910.0907</v>
       </c>
       <c r="G48" t="n">
-        <v>266.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="K48" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L48" t="n">
-        <v>273.3</v>
+        <v>270</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>272.25</v>
-      </c>
-      <c r="N48" t="n">
-        <v>271.0333333333334</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,49 +2402,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C49" t="n">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D49" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E49" t="n">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F49" t="n">
-        <v>8125.9938</v>
+        <v>23089.0073</v>
       </c>
       <c r="G49" t="n">
-        <v>267.2333333333333</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="K49" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L49" t="n">
-        <v>273.6</v>
+        <v>270</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>272.55</v>
-      </c>
-      <c r="N49" t="n">
-        <v>271.4333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,49 +2445,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C50" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D50" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E50" t="n">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="F50" t="n">
-        <v>168</v>
+        <v>1231.9479</v>
       </c>
       <c r="G50" t="n">
-        <v>267.55</v>
+        <v>-20</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="K50" t="n">
-        <v>100</v>
-      </c>
-      <c r="L50" t="n">
-        <v>273.9</v>
+        <v>270</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="N50" t="n">
-        <v>271.7666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,49 +2488,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C51" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D51" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E51" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F51" t="n">
-        <v>2410</v>
+        <v>2317.5711</v>
       </c>
       <c r="G51" t="n">
-        <v>267.8166666666667</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="K51" t="n">
-        <v>100</v>
-      </c>
-      <c r="L51" t="n">
-        <v>274.4</v>
+        <v>270</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>273.2</v>
-      </c>
-      <c r="N51" t="n">
-        <v>272.0333333333334</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2875,49 +2531,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C52" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D52" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E52" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F52" t="n">
-        <v>7375.1525</v>
+        <v>1415.7024</v>
       </c>
       <c r="G52" t="n">
-        <v>268.0666666666667</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="K52" t="n">
-        <v>100</v>
-      </c>
-      <c r="L52" t="n">
-        <v>274.7</v>
+        <v>270</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>273.5</v>
-      </c>
-      <c r="N52" t="n">
-        <v>272.3</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,49 +2574,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C53" t="n">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D53" t="n">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E53" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F53" t="n">
-        <v>3662.5804</v>
+        <v>1521.5364</v>
       </c>
       <c r="G53" t="n">
-        <v>268.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="K53" t="n">
-        <v>100</v>
-      </c>
-      <c r="L53" t="n">
-        <v>275</v>
+        <v>270</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>273.75</v>
-      </c>
-      <c r="N53" t="n">
-        <v>272.5</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,49 +2617,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C54" t="n">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D54" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E54" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F54" t="n">
-        <v>21.3369</v>
+        <v>3318.4093</v>
       </c>
       <c r="G54" t="n">
-        <v>268.5666666666667</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>48</v>
+        <v>270</v>
       </c>
       <c r="K54" t="n">
-        <v>100</v>
-      </c>
-      <c r="L54" t="n">
-        <v>275.3</v>
+        <v>270</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>273.95</v>
-      </c>
-      <c r="N54" t="n">
-        <v>272.7333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3028,49 +2660,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C55" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D55" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E55" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F55" t="n">
-        <v>273</v>
+        <v>2972.4169</v>
       </c>
       <c r="G55" t="n">
-        <v>268.85</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>48</v>
+        <v>269</v>
       </c>
       <c r="K55" t="n">
-        <v>100</v>
-      </c>
-      <c r="L55" t="n">
-        <v>275.5</v>
+        <v>270</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>274.15</v>
-      </c>
-      <c r="N55" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,49 +2703,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C56" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D56" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E56" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F56" t="n">
-        <v>1644.6017</v>
+        <v>1277.8382</v>
       </c>
       <c r="G56" t="n">
-        <v>269.1333333333333</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>49</v>
+        <v>271</v>
       </c>
       <c r="K56" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L56" t="n">
-        <v>275.6</v>
+        <v>270</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>274.3</v>
-      </c>
-      <c r="N56" t="n">
-        <v>273</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,50 +2746,42 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C57" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D57" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E57" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F57" t="n">
-        <v>2018.53</v>
+        <v>118.0297</v>
       </c>
       <c r="G57" t="n">
-        <v>269.4333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>275.7</v>
+        <v>270</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="N57" t="n">
-        <v>273.1666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="58">
@@ -3181,49 +2789,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C58" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D58" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E58" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F58" t="n">
-        <v>5744.0627</v>
+        <v>1274.6436</v>
       </c>
       <c r="G58" t="n">
-        <v>269.7333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>49</v>
+        <v>270</v>
       </c>
       <c r="K58" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L58" t="n">
-        <v>275.7</v>
+        <v>269</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>274.5</v>
-      </c>
-      <c r="N58" t="n">
-        <v>273.4</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,49 +2832,41 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C59" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D59" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E59" t="n">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F59" t="n">
-        <v>7743.1863</v>
+        <v>2437.5148</v>
       </c>
       <c r="G59" t="n">
-        <v>269.9833333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>52</v>
+        <v>268</v>
       </c>
       <c r="K59" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L59" t="n">
-        <v>275.3</v>
+        <v>269</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>274.45</v>
-      </c>
-      <c r="N59" t="n">
-        <v>273.4666666666666</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,49 +2875,41 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C60" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D60" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E60" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F60" t="n">
-        <v>39.5534</v>
+        <v>23.8037</v>
       </c>
       <c r="G60" t="n">
-        <v>270.2333333333333</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="K60" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L60" t="n">
-        <v>274.9</v>
+        <v>269</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="N60" t="n">
-        <v>273.5666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,49 +2918,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C61" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D61" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E61" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F61" t="n">
-        <v>15586.4626</v>
+        <v>209.6731</v>
       </c>
       <c r="G61" t="n">
-        <v>270.4833333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>52</v>
+        <v>269</v>
       </c>
       <c r="K61" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L61" t="n">
-        <v>274.5</v>
+        <v>269</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>274.45</v>
-      </c>
-      <c r="N61" t="n">
-        <v>273.6333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,49 +2961,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C62" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D62" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E62" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F62" t="n">
-        <v>10885.0605</v>
+        <v>2070.8572</v>
       </c>
       <c r="G62" t="n">
-        <v>270.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="K62" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L62" t="n">
-        <v>274.1</v>
+        <v>269</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="N62" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,49 +3004,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C63" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D63" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E63" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F63" t="n">
-        <v>2852.7421</v>
+        <v>1593.5873</v>
       </c>
       <c r="G63" t="n">
-        <v>270.8833333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>52</v>
+        <v>270</v>
       </c>
       <c r="K63" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L63" t="n">
-        <v>273.7</v>
+        <v>269</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>274.35</v>
-      </c>
-      <c r="N63" t="n">
-        <v>273.7333333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,7 +3047,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C64" t="n">
         <v>272</v>
@@ -3496,40 +3056,32 @@
         <v>272</v>
       </c>
       <c r="E64" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F64" t="n">
-        <v>150.2079</v>
+        <v>4306.9038</v>
       </c>
       <c r="G64" t="n">
-        <v>271.05</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>52</v>
+        <v>271</v>
       </c>
       <c r="K64" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L64" t="n">
-        <v>273.3</v>
+        <v>269</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>274.3</v>
-      </c>
-      <c r="N64" t="n">
-        <v>273.7333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3550,37 +3102,29 @@
         <v>272</v>
       </c>
       <c r="F65" t="n">
-        <v>254.7669</v>
+        <v>1077.6849</v>
       </c>
       <c r="G65" t="n">
-        <v>271.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="K65" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L65" t="n">
-        <v>272.9</v>
+        <v>269</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>274.2</v>
-      </c>
-      <c r="N65" t="n">
-        <v>273.7333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3601,37 +3145,29 @@
         <v>272</v>
       </c>
       <c r="F66" t="n">
-        <v>989</v>
+        <v>127.729</v>
       </c>
       <c r="G66" t="n">
-        <v>271.2833333333334</v>
+        <v>25</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="K66" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L66" t="n">
-        <v>272.6</v>
+        <v>269</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>274.1</v>
-      </c>
-      <c r="N66" t="n">
-        <v>273.7333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,49 +3176,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C67" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D67" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E67" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F67" t="n">
-        <v>3671.1985</v>
+        <v>11008.4468</v>
       </c>
       <c r="G67" t="n">
-        <v>271.4</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>52</v>
+        <v>272</v>
       </c>
       <c r="K67" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L67" t="n">
-        <v>272.3</v>
+        <v>269</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>274</v>
-      </c>
-      <c r="N67" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,47 +3219,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C68" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D68" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E68" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F68" t="n">
-        <v>3670</v>
+        <v>1048.8278</v>
       </c>
       <c r="G68" t="n">
-        <v>271.4833333333333</v>
+        <v>60</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>52</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="K68" t="n">
+        <v>269</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>273.85</v>
-      </c>
-      <c r="N68" t="n">
-        <v>273.6666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3740,48 +3262,42 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C69" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D69" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E69" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F69" t="n">
-        <v>8.6212</v>
+        <v>133.2689</v>
       </c>
       <c r="G69" t="n">
-        <v>271.5833333333333</v>
+        <v>100</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>52</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="K69" t="n">
+        <v>269</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>273.65</v>
-      </c>
-      <c r="N69" t="n">
-        <v>273.6333333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
-        <v>1</v>
+        <v>1.009869888475837</v>
       </c>
     </row>
     <row r="70">
@@ -3789,47 +3305,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C70" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D70" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E70" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F70" t="n">
-        <v>397.2297</v>
+        <v>8358.771000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>271.6333333333333</v>
+        <v>100</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>52</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="K70" t="n">
+        <v>273</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>273.45</v>
-      </c>
-      <c r="N70" t="n">
-        <v>273.6</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3838,47 +3348,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C71" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D71" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E71" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F71" t="n">
-        <v>420.2969</v>
+        <v>3391.0265</v>
       </c>
       <c r="G71" t="n">
-        <v>271.7</v>
+        <v>20</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>52</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="K71" t="n">
+        <v>273</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>273.25</v>
-      </c>
-      <c r="N71" t="n">
-        <v>273.6333333333333</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,46 +3394,38 @@
         <v>273</v>
       </c>
       <c r="C72" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D72" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E72" t="n">
         <v>273</v>
       </c>
       <c r="F72" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="G72" t="n">
-        <v>271.7833333333334</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>54</v>
+        <v>271</v>
       </c>
       <c r="K72" t="n">
-        <v>100</v>
-      </c>
-      <c r="L72" t="n">
-        <v>272.2</v>
+        <v>273</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>273.15</v>
-      </c>
-      <c r="N72" t="n">
-        <v>273.6666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3938,49 +3434,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C73" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D73" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E73" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F73" t="n">
-        <v>6142.8494</v>
+        <v>21.242</v>
       </c>
       <c r="G73" t="n">
-        <v>271.8666666666667</v>
+        <v>20</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>54</v>
+        <v>273</v>
       </c>
       <c r="K73" t="n">
-        <v>100</v>
-      </c>
-      <c r="L73" t="n">
-        <v>272.4</v>
+        <v>273</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>273.05</v>
-      </c>
-      <c r="N73" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,37 +3489,29 @@
         <v>273</v>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>103.2346</v>
       </c>
       <c r="G74" t="n">
-        <v>271.9166666666667</v>
+        <v>20</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>55</v>
+        <v>273</v>
       </c>
       <c r="K74" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L74" t="n">
-        <v>272.5</v>
+        <v>273</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="N74" t="n">
-        <v>273.7</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4040,49 +3520,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C75" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D75" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E75" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F75" t="n">
-        <v>820.3549</v>
+        <v>4011.8061</v>
       </c>
       <c r="G75" t="n">
-        <v>272</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>57</v>
+        <v>273</v>
       </c>
       <c r="K75" t="n">
-        <v>60</v>
-      </c>
-      <c r="L75" t="n">
-        <v>272.8</v>
+        <v>273</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>272.85</v>
-      </c>
-      <c r="N75" t="n">
-        <v>273.7333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4091,49 +3563,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C76" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D76" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E76" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>8122.8834</v>
       </c>
       <c r="G76" t="n">
-        <v>272.15</v>
+        <v>20</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>58</v>
+        <v>274</v>
       </c>
       <c r="K76" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L76" t="n">
-        <v>273.2</v>
+        <v>273</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="N76" t="n">
-        <v>273.8</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4142,49 +3606,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C77" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D77" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E77" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F77" t="n">
-        <v>1390.8042</v>
+        <v>600.0974</v>
       </c>
       <c r="G77" t="n">
-        <v>272.3166666666667</v>
+        <v>20</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>59</v>
+        <v>274</v>
       </c>
       <c r="K77" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L77" t="n">
-        <v>273.7</v>
+        <v>273</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>273</v>
-      </c>
-      <c r="N77" t="n">
-        <v>273.9</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,49 +3649,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C78" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D78" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E78" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F78" t="n">
-        <v>7339.1958</v>
+        <v>7771.2602</v>
       </c>
       <c r="G78" t="n">
-        <v>272.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>59</v>
+        <v>274</v>
       </c>
       <c r="K78" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L78" t="n">
-        <v>274.2</v>
+        <v>273</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>273.1</v>
-      </c>
-      <c r="N78" t="n">
-        <v>273.9666666666666</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,49 +3692,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C79" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D79" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E79" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F79" t="n">
-        <v>9119.965207913669</v>
+        <v>8125.9938</v>
       </c>
       <c r="G79" t="n">
-        <v>272.7333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="K79" t="n">
-        <v>75</v>
-      </c>
-      <c r="L79" t="n">
-        <v>274.8</v>
+        <v>273</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>273.4</v>
-      </c>
-      <c r="N79" t="n">
-        <v>274.0333333333334</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4295,49 +3735,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C80" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D80" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E80" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F80" t="n">
-        <v>5331.6488</v>
+        <v>168</v>
       </c>
       <c r="G80" t="n">
-        <v>272.9166666666667</v>
+        <v>100</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>61</v>
+        <v>276</v>
       </c>
       <c r="K80" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L80" t="n">
-        <v>275.3</v>
+        <v>273</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>273.65</v>
-      </c>
-      <c r="N80" t="n">
-        <v>274.0666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4346,49 +3778,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C81" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D81" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E81" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F81" t="n">
-        <v>242.7718</v>
+        <v>2410</v>
       </c>
       <c r="G81" t="n">
-        <v>273.1</v>
+        <v>100</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>63</v>
+        <v>276</v>
       </c>
       <c r="K81" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L81" t="n">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>274</v>
-      </c>
-      <c r="N81" t="n">
-        <v>274.1666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4397,50 +3821,42 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C82" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D82" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E82" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F82" t="n">
-        <v>10092.6086</v>
+        <v>7375.1525</v>
       </c>
       <c r="G82" t="n">
-        <v>273.3</v>
+        <v>100</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="K82" t="n">
-        <v>60</v>
-      </c>
-      <c r="L82" t="n">
-        <v>276.6</v>
+        <v>273</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>274.4</v>
-      </c>
-      <c r="N82" t="n">
-        <v>274.3</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
-        <v>1</v>
+        <v>1.005989010989011</v>
       </c>
     </row>
     <row r="83">
@@ -4448,49 +3864,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C83" t="n">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D83" t="n">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E83" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F83" t="n">
-        <v>11779.7275</v>
+        <v>3662.5804</v>
       </c>
       <c r="G83" t="n">
-        <v>273.4833333333333</v>
+        <v>100</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>65</v>
+        <v>276</v>
       </c>
       <c r="K83" t="n">
-        <v>80</v>
-      </c>
-      <c r="L83" t="n">
-        <v>277.3</v>
+        <v>276</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>274.85</v>
-      </c>
-      <c r="N83" t="n">
-        <v>274.4666666666666</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4499,49 +3907,37 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C84" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D84" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E84" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F84" t="n">
-        <v>103.2892</v>
+        <v>21.3369</v>
       </c>
       <c r="G84" t="n">
-        <v>273.6666666666667</v>
+        <v>100</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c r="K84" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L84" t="n">
-        <v>278</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>275.25</v>
-      </c>
-      <c r="N84" t="n">
-        <v>274.6</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,49 +3946,41 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C85" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D85" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E85" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F85" t="n">
-        <v>1024.9427</v>
+        <v>273</v>
       </c>
       <c r="G85" t="n">
-        <v>273.8166666666667</v>
+        <v>100</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>66</v>
+        <v>276</v>
       </c>
       <c r="K85" t="n">
-        <v>50</v>
-      </c>
-      <c r="L85" t="n">
-        <v>278.5</v>
+        <v>276</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>275.65</v>
-      </c>
-      <c r="N85" t="n">
-        <v>274.7333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4601,49 +3989,41 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C86" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D86" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E86" t="n">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F86" t="n">
-        <v>22315.5385</v>
+        <v>1644.6017</v>
       </c>
       <c r="G86" t="n">
-        <v>273.9666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>67</v>
+        <v>276</v>
       </c>
       <c r="K86" t="n">
-        <v>50</v>
-      </c>
-      <c r="L86" t="n">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>276.1</v>
-      </c>
-      <c r="N86" t="n">
-        <v>274.9333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4652,49 +4032,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C87" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D87" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E87" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F87" t="n">
-        <v>2867.3834</v>
+        <v>2018.53</v>
       </c>
       <c r="G87" t="n">
-        <v>274.15</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="K87" t="n">
-        <v>50</v>
-      </c>
-      <c r="L87" t="n">
-        <v>279.4</v>
+        <v>276</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>276.55</v>
-      </c>
-      <c r="N87" t="n">
-        <v>275.1333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,49 +4075,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C88" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D88" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E88" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F88" t="n">
-        <v>15664.4054</v>
+        <v>5744.0627</v>
       </c>
       <c r="G88" t="n">
-        <v>274.3666666666667</v>
+        <v>-100</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="K88" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L88" t="n">
-        <v>279.8</v>
+        <v>276</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>277</v>
-      </c>
-      <c r="N88" t="n">
-        <v>275.3333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4754,49 +4118,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C89" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D89" t="n">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E89" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F89" t="n">
-        <v>192</v>
+        <v>7743.1863</v>
       </c>
       <c r="G89" t="n">
-        <v>274.55</v>
+        <v>-100</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>67</v>
+        <v>275</v>
       </c>
       <c r="K89" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L89" t="n">
-        <v>280.1</v>
+        <v>276</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>277.45</v>
-      </c>
-      <c r="N89" t="n">
-        <v>275.6333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4805,49 +4161,41 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C90" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D90" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E90" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F90" t="n">
-        <v>7300</v>
+        <v>39.5534</v>
       </c>
       <c r="G90" t="n">
-        <v>274.75</v>
+        <v>-100</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="K90" t="n">
-        <v>50</v>
-      </c>
-      <c r="L90" t="n">
-        <v>280.5</v>
+        <v>276</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>277.9</v>
-      </c>
-      <c r="N90" t="n">
-        <v>275.9333333333333</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4856,49 +4204,41 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C91" t="n">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D91" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="E91" t="n">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="F91" t="n">
-        <v>2867.3834</v>
+        <v>15586.4626</v>
       </c>
       <c r="G91" t="n">
-        <v>274.9166666666667</v>
+        <v>-100</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>280.6</v>
+        <v>276</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>278.3</v>
-      </c>
-      <c r="N91" t="n">
-        <v>276.2</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4907,49 +4247,41 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C92" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D92" t="n">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="E92" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F92" t="n">
-        <v>500</v>
+        <v>10885.0605</v>
       </c>
       <c r="G92" t="n">
-        <v>275.1</v>
+        <v>-100</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>69</v>
+        <v>272</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>280.7</v>
+        <v>276</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>278.65</v>
-      </c>
-      <c r="N92" t="n">
-        <v>276.5</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4958,49 +4290,41 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C93" t="n">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D93" t="n">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E93" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F93" t="n">
-        <v>45.8049</v>
+        <v>2852.7421</v>
       </c>
       <c r="G93" t="n">
-        <v>275.2833333333334</v>
+        <v>-100</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="K93" t="n">
-        <v>50</v>
-      </c>
-      <c r="L93" t="n">
-        <v>280.8</v>
+        <v>276</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>279.05</v>
-      </c>
-      <c r="N93" t="n">
-        <v>276.8333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5009,49 +4333,41 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C94" t="n">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D94" t="n">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E94" t="n">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F94" t="n">
-        <v>5247.6063</v>
+        <v>150.2079</v>
       </c>
       <c r="G94" t="n">
-        <v>275.45</v>
+        <v>-100</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="K94" t="n">
-        <v>50</v>
-      </c>
-      <c r="L94" t="n">
-        <v>281</v>
+        <v>276</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>279.5</v>
-      </c>
-      <c r="N94" t="n">
-        <v>277.1666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5060,49 +4376,41 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C95" t="n">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D95" t="n">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E95" t="n">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F95" t="n">
-        <v>4310</v>
+        <v>254.7669</v>
       </c>
       <c r="G95" t="n">
-        <v>275.55</v>
+        <v>-100</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="K95" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L95" t="n">
-        <v>280.8</v>
+        <v>276</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>279.65</v>
-      </c>
-      <c r="N95" t="n">
-        <v>277.3666666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5111,49 +4419,41 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C96" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D96" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E96" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F96" t="n">
-        <v>978.452</v>
+        <v>989</v>
       </c>
       <c r="G96" t="n">
-        <v>275.6333333333333</v>
+        <v>-100</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="K96" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L96" t="n">
-        <v>280.4</v>
+        <v>276</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>279.7</v>
-      </c>
-      <c r="N96" t="n">
-        <v>277.5333333333334</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5162,50 +4462,42 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C97" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D97" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E97" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F97" t="n">
-        <v>5.7165</v>
+        <v>3671.1985</v>
       </c>
       <c r="G97" t="n">
-        <v>275.7</v>
+        <v>-100</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="K97" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L97" t="n">
-        <v>280</v>
+        <v>276</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>279.7</v>
-      </c>
-      <c r="N97" t="n">
-        <v>277.7</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
-        <v>1</v>
+        <v>0.9805072463768116</v>
       </c>
     </row>
     <row r="98">
@@ -5213,49 +4505,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C98" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D98" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E98" t="n">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F98" t="n">
-        <v>4527.3425</v>
-      </c>
-      <c r="G98" t="n">
-        <v>275.7666666666667</v>
-      </c>
+        <v>3670</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>75</v>
+        <v>272</v>
       </c>
       <c r="K98" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L98" t="n">
-        <v>279.6</v>
+        <v>272</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>279.7</v>
-      </c>
-      <c r="N98" t="n">
-        <v>277.8666666666667</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5264,49 +4546,844 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>272</v>
+      </c>
+      <c r="C99" t="n">
+        <v>272</v>
+      </c>
+      <c r="D99" t="n">
+        <v>272</v>
+      </c>
+      <c r="E99" t="n">
+        <v>272</v>
+      </c>
+      <c r="F99" t="n">
+        <v>8.6212</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>272</v>
+      </c>
+      <c r="K99" t="n">
+        <v>272</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>272</v>
+      </c>
+      <c r="C100" t="n">
+        <v>272</v>
+      </c>
+      <c r="D100" t="n">
+        <v>272</v>
+      </c>
+      <c r="E100" t="n">
+        <v>272</v>
+      </c>
+      <c r="F100" t="n">
+        <v>397.2297</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>272</v>
+      </c>
+      <c r="K100" t="n">
+        <v>272</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>272</v>
+      </c>
+      <c r="C101" t="n">
+        <v>272</v>
+      </c>
+      <c r="D101" t="n">
+        <v>272</v>
+      </c>
+      <c r="E101" t="n">
+        <v>272</v>
+      </c>
+      <c r="F101" t="n">
+        <v>420.2969</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>272</v>
+      </c>
+      <c r="K101" t="n">
+        <v>272</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>273</v>
+      </c>
+      <c r="C102" t="n">
+        <v>274</v>
+      </c>
+      <c r="D102" t="n">
+        <v>274</v>
+      </c>
+      <c r="E102" t="n">
+        <v>273</v>
+      </c>
+      <c r="F102" t="n">
+        <v>990</v>
+      </c>
+      <c r="G102" t="n">
+        <v>100</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>272</v>
+      </c>
+      <c r="K102" t="n">
+        <v>272</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>272</v>
+      </c>
+      <c r="C103" t="n">
+        <v>274</v>
+      </c>
+      <c r="D103" t="n">
+        <v>274</v>
+      </c>
+      <c r="E103" t="n">
+        <v>272</v>
+      </c>
+      <c r="F103" t="n">
+        <v>6142.8494</v>
+      </c>
+      <c r="G103" t="n">
+        <v>100</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>274</v>
+      </c>
+      <c r="K103" t="n">
+        <v>272</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>273</v>
+      </c>
+      <c r="C104" t="n">
+        <v>273</v>
+      </c>
+      <c r="D104" t="n">
+        <v>273</v>
+      </c>
+      <c r="E104" t="n">
+        <v>273</v>
+      </c>
+      <c r="F104" t="n">
+        <v>300</v>
+      </c>
+      <c r="G104" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>274</v>
+      </c>
+      <c r="K104" t="n">
+        <v>272</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>275</v>
+      </c>
+      <c r="C105" t="n">
+        <v>275</v>
+      </c>
+      <c r="D105" t="n">
+        <v>275</v>
+      </c>
+      <c r="E105" t="n">
+        <v>275</v>
+      </c>
+      <c r="F105" t="n">
+        <v>820.3549</v>
+      </c>
+      <c r="G105" t="n">
+        <v>60</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>273</v>
+      </c>
+      <c r="K105" t="n">
+        <v>272</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>276</v>
+      </c>
+      <c r="C106" t="n">
+        <v>276</v>
+      </c>
+      <c r="D106" t="n">
+        <v>276</v>
+      </c>
+      <c r="E106" t="n">
+        <v>276</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>275</v>
+      </c>
+      <c r="K106" t="n">
+        <v>272</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
         <v>277</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C107" t="n">
+        <v>277</v>
+      </c>
+      <c r="D107" t="n">
+        <v>277</v>
+      </c>
+      <c r="E107" t="n">
+        <v>277</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1390.8042</v>
+      </c>
+      <c r="G107" t="n">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
         <v>276</v>
       </c>
-      <c r="D99" t="n">
+      <c r="K107" t="n">
+        <v>272</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>277</v>
+      </c>
+      <c r="C108" t="n">
+        <v>277</v>
+      </c>
+      <c r="D108" t="n">
+        <v>277</v>
+      </c>
+      <c r="E108" t="n">
+        <v>277</v>
+      </c>
+      <c r="F108" t="n">
+        <v>7339.1958</v>
+      </c>
+      <c r="G108" t="n">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>277</v>
+      </c>
+      <c r="K108" t="n">
+        <v>272</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>278</v>
+      </c>
+      <c r="C109" t="n">
+        <v>278</v>
+      </c>
+      <c r="D109" t="n">
+        <v>278</v>
+      </c>
+      <c r="E109" t="n">
+        <v>278</v>
+      </c>
+      <c r="F109" t="n">
+        <v>9119.965207913669</v>
+      </c>
+      <c r="G109" t="n">
+        <v>75</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>277</v>
+      </c>
+      <c r="K109" t="n">
+        <v>272</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>278</v>
+      </c>
+      <c r="C110" t="n">
+        <v>277</v>
+      </c>
+      <c r="D110" t="n">
+        <v>278</v>
+      </c>
+      <c r="E110" t="n">
+        <v>277</v>
+      </c>
+      <c r="F110" t="n">
+        <v>5331.6488</v>
+      </c>
+      <c r="G110" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>278</v>
+      </c>
+      <c r="K110" t="n">
+        <v>272</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
         <v>279</v>
       </c>
-      <c r="E99" t="n">
-        <v>276</v>
-      </c>
-      <c r="F99" t="n">
-        <v>8877.817800000001</v>
-      </c>
-      <c r="G99" t="n">
-        <v>275.8166666666667</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>16</v>
-      </c>
-      <c r="J99" t="n">
-        <v>76</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L99" t="n">
-        <v>279.1</v>
-      </c>
-      <c r="M99" t="n">
-        <v>279.6</v>
-      </c>
-      <c r="N99" t="n">
+      <c r="C111" t="n">
+        <v>279</v>
+      </c>
+      <c r="D111" t="n">
+        <v>279</v>
+      </c>
+      <c r="E111" t="n">
+        <v>279</v>
+      </c>
+      <c r="F111" t="n">
+        <v>242.7718</v>
+      </c>
+      <c r="G111" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>277</v>
+      </c>
+      <c r="K111" t="n">
+        <v>272</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>279</v>
+      </c>
+      <c r="C112" t="n">
+        <v>280</v>
+      </c>
+      <c r="D112" t="n">
+        <v>280</v>
+      </c>
+      <c r="E112" t="n">
+        <v>279</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10092.6086</v>
+      </c>
+      <c r="G112" t="n">
+        <v>60</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>279</v>
+      </c>
+      <c r="K112" t="n">
+        <v>272</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>280</v>
+      </c>
+      <c r="C113" t="n">
+        <v>281</v>
+      </c>
+      <c r="D113" t="n">
+        <v>281</v>
+      </c>
+      <c r="E113" t="n">
+        <v>280</v>
+      </c>
+      <c r="F113" t="n">
+        <v>11779.7275</v>
+      </c>
+      <c r="G113" t="n">
+        <v>80</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>280</v>
+      </c>
+      <c r="K113" t="n">
+        <v>272</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>280</v>
+      </c>
+      <c r="C114" t="n">
+        <v>280</v>
+      </c>
+      <c r="D114" t="n">
+        <v>280</v>
+      </c>
+      <c r="E114" t="n">
+        <v>280</v>
+      </c>
+      <c r="F114" t="n">
+        <v>103.2892</v>
+      </c>
+      <c r="G114" t="n">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>281</v>
+      </c>
+      <c r="K114" t="n">
+        <v>272</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1.024411764705882</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
         <v>278</v>
       </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
+      <c r="C115" t="n">
+        <v>280</v>
+      </c>
+      <c r="D115" t="n">
+        <v>280</v>
+      </c>
+      <c r="E115" t="n">
+        <v>278</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1024.9427</v>
+      </c>
+      <c r="G115" t="n">
+        <v>50</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>280</v>
+      </c>
+      <c r="K115" t="n">
+        <v>281</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>281</v>
+      </c>
+      <c r="C116" t="n">
+        <v>281</v>
+      </c>
+      <c r="D116" t="n">
+        <v>281</v>
+      </c>
+      <c r="E116" t="n">
+        <v>281</v>
+      </c>
+      <c r="F116" t="n">
+        <v>22315.5385</v>
+      </c>
+      <c r="G116" t="n">
+        <v>50</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>280</v>
+      </c>
+      <c r="K116" t="n">
+        <v>281</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>281</v>
+      </c>
+      <c r="C117" t="n">
+        <v>281</v>
+      </c>
+      <c r="D117" t="n">
+        <v>281</v>
+      </c>
+      <c r="E117" t="n">
+        <v>281</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2867.3834</v>
+      </c>
+      <c r="G117" t="n">
+        <v>50</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>281</v>
+      </c>
+      <c r="K117" t="n">
+        <v>281</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>281</v>
+      </c>
+      <c r="C118" t="n">
+        <v>281</v>
+      </c>
+      <c r="D118" t="n">
+        <v>281</v>
+      </c>
+      <c r="E118" t="n">
+        <v>281</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15664.4054</v>
+      </c>
+      <c r="G118" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>281</v>
+      </c>
+      <c r="K118" t="n">
+        <v>281</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-22 BackTest BAT.xlsx
+++ b/BackTest/2019-10-22 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -425,6 +425,11 @@
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
         </is>
       </c>
     </row>
@@ -448,13 +453,13 @@
         <v>6464.5886</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>-38652.45508895137</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,24 +489,21 @@
         <v>46</v>
       </c>
       <c r="G3" t="n">
-        <v>55.55555555555556</v>
+        <v>-38652.45508895137</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>255</v>
-      </c>
-      <c r="K3" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -522,28 +525,21 @@
         <v>19.2957</v>
       </c>
       <c r="G4" t="n">
-        <v>60</v>
+        <v>-38633.15938895137</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>255</v>
-      </c>
-      <c r="K4" t="n">
-        <v>255</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,28 +561,21 @@
         <v>3386.1727</v>
       </c>
       <c r="G5" t="n">
-        <v>77.77777777777779</v>
+        <v>-42019.33208895137</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>257</v>
-      </c>
-      <c r="K5" t="n">
-        <v>255</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -608,24 +597,21 @@
         <v>37.9803</v>
       </c>
       <c r="G6" t="n">
-        <v>77.77777777777779</v>
+        <v>-41981.35178895137</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>256</v>
-      </c>
-      <c r="K6" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -647,28 +633,21 @@
         <v>3140.0581</v>
       </c>
       <c r="G7" t="n">
-        <v>80</v>
+        <v>-38841.29368895137</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>257</v>
-      </c>
-      <c r="K7" t="n">
-        <v>256</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,28 +669,21 @@
         <v>9732.184300000001</v>
       </c>
       <c r="G8" t="n">
-        <v>45.45454545454545</v>
+        <v>-48573.47798895137</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>258</v>
-      </c>
-      <c r="K8" t="n">
-        <v>256</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -733,24 +705,21 @@
         <v>99.75</v>
       </c>
       <c r="G9" t="n">
-        <v>40</v>
+        <v>-48573.47798895137</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>256</v>
-      </c>
-      <c r="K9" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -772,28 +741,21 @@
         <v>39.0054</v>
       </c>
       <c r="G10" t="n">
-        <v>33.33333333333333</v>
+        <v>-48534.47258895136</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>256</v>
-      </c>
-      <c r="K10" t="n">
-        <v>256</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -815,28 +777,21 @@
         <v>3140.0581</v>
       </c>
       <c r="G11" t="n">
-        <v>11.11111111111111</v>
+        <v>-51674.53068895137</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>257</v>
-      </c>
-      <c r="K11" t="n">
-        <v>256</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,24 +813,21 @@
         <v>1016</v>
       </c>
       <c r="G12" t="n">
-        <v>27.27272727272727</v>
+        <v>-50658.53068895137</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>256</v>
-      </c>
-      <c r="K12" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -897,28 +849,21 @@
         <v>234.1599</v>
       </c>
       <c r="G13" t="n">
-        <v>11.11111111111111</v>
+        <v>-50658.53068895137</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>258</v>
-      </c>
-      <c r="K13" t="n">
-        <v>256</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -940,28 +885,21 @@
         <v>1767</v>
       </c>
       <c r="G14" t="n">
-        <v>25</v>
+        <v>-50658.53068895137</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>258</v>
-      </c>
-      <c r="K14" t="n">
-        <v>256</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -983,24 +921,21 @@
         <v>2755.3248</v>
       </c>
       <c r="G15" t="n">
-        <v>14.28571428571428</v>
+        <v>-50658.53068895137</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>258</v>
-      </c>
-      <c r="K15" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1022,28 +957,21 @@
         <v>2063.5</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-50658.53068895137</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>258</v>
-      </c>
-      <c r="K16" t="n">
-        <v>258</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1065,28 +993,21 @@
         <v>11718.4085</v>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>-50658.53068895137</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>258</v>
-      </c>
-      <c r="K17" t="n">
-        <v>258</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1108,24 +1029,21 @@
         <v>11</v>
       </c>
       <c r="G18" t="n">
-        <v>66.66666666666666</v>
+        <v>-50647.53068895137</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>258</v>
-      </c>
-      <c r="K18" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1147,28 +1065,21 @@
         <v>1445.6995</v>
       </c>
       <c r="G19" t="n">
-        <v>14.28571428571428</v>
+        <v>-52093.23018895137</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>260</v>
-      </c>
-      <c r="K19" t="n">
-        <v>258</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1190,28 +1101,21 @@
         <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>14.28571428571428</v>
+        <v>-52104.23018895137</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>258</v>
-      </c>
-      <c r="K20" t="n">
-        <v>258</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1233,24 +1137,21 @@
         <v>605.6423</v>
       </c>
       <c r="G21" t="n">
-        <v>25</v>
+        <v>-51498.58788895137</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>257</v>
-      </c>
-      <c r="K21" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1272,28 +1173,21 @@
         <v>3026.9348</v>
       </c>
       <c r="G22" t="n">
-        <v>33.33333333333333</v>
+        <v>-48471.65308895137</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>260</v>
-      </c>
-      <c r="K22" t="n">
-        <v>257</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1315,28 +1209,21 @@
         <v>802.5363</v>
       </c>
       <c r="G23" t="n">
-        <v>33.33333333333333</v>
+        <v>-48471.65308895137</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>261</v>
-      </c>
-      <c r="K23" t="n">
-        <v>257</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1358,24 +1245,21 @@
         <v>2099.9808</v>
       </c>
       <c r="G24" t="n">
-        <v>33.33333333333333</v>
+        <v>-48471.65308895137</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>261</v>
-      </c>
-      <c r="K24" t="n">
-        <v>261</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1397,28 +1281,21 @@
         <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>9.090909090909092</v>
+        <v>-48501.65308895137</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>261</v>
-      </c>
-      <c r="K25" t="n">
-        <v>261</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1440,28 +1317,21 @@
         <v>1095.3065</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-49596.95958895137</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>259</v>
-      </c>
-      <c r="K26" t="n">
-        <v>261</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1483,24 +1353,21 @@
         <v>3026.9348</v>
       </c>
       <c r="G27" t="n">
-        <v>-27.27272727272727</v>
+        <v>-52623.89438895137</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>258</v>
-      </c>
-      <c r="K27" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1522,28 +1389,21 @@
         <v>3137.6287</v>
       </c>
       <c r="G28" t="n">
-        <v>-11.11111111111111</v>
+        <v>-52623.89438895137</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>257</v>
-      </c>
-      <c r="K28" t="n">
-        <v>258</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1565,28 +1425,21 @@
         <v>2011</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-52623.89438895137</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>257</v>
-      </c>
-      <c r="K29" t="n">
-        <v>258</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1608,24 +1461,21 @@
         <v>233</v>
       </c>
       <c r="G30" t="n">
-        <v>-60</v>
+        <v>-52623.89438895137</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>257</v>
-      </c>
-      <c r="K30" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1647,28 +1497,21 @@
         <v>3218.6104</v>
       </c>
       <c r="G31" t="n">
-        <v>-100</v>
+        <v>-52623.89438895137</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>257</v>
-      </c>
-      <c r="K31" t="n">
-        <v>257</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1690,13 +1533,13 @@
         <v>780</v>
       </c>
       <c r="G32" t="n">
-        <v>-14.28571428571428</v>
+        <v>-51843.89438895137</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>257</v>
@@ -1704,14 +1547,11 @@
       <c r="K32" t="n">
         <v>257</v>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1733,24 +1573,29 @@
         <v>2135.6551</v>
       </c>
       <c r="G33" t="n">
-        <v>-14.28571428571428</v>
+        <v>-51843.89438895137</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>260</v>
       </c>
       <c r="K33" t="n">
-        <v>260</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
+        <v>257</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1772,28 +1617,29 @@
         <v>5839.0711</v>
       </c>
       <c r="G34" t="n">
-        <v>42.85714285714285</v>
+        <v>-46004.82328895137</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>260</v>
       </c>
       <c r="K34" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1815,28 +1661,29 @@
         <v>27993.1517</v>
       </c>
       <c r="G35" t="n">
-        <v>77.77777777777779</v>
+        <v>-18011.67158895137</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>262</v>
       </c>
       <c r="K35" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1858,19 +1705,17 @@
         <v>8000</v>
       </c>
       <c r="G36" t="n">
-        <v>100</v>
+        <v>-18011.67158895137</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1880,6 +1725,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1901,19 +1747,17 @@
         <v>4626.2351</v>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>-18011.67158895137</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1923,6 +1767,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1944,19 +1789,17 @@
         <v>13078.6177</v>
       </c>
       <c r="G38" t="n">
-        <v>100</v>
+        <v>-4933.053888951368</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1966,6 +1809,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1987,19 +1831,17 @@
         <v>3600</v>
       </c>
       <c r="G39" t="n">
-        <v>81.81818181818183</v>
+        <v>-8533.053888951368</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2009,6 +1851,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2030,19 +1873,17 @@
         <v>9706.5694</v>
       </c>
       <c r="G40" t="n">
-        <v>85.71428571428571</v>
+        <v>1173.515511048632</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2052,6 +1893,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2073,19 +1915,17 @@
         <v>975.1674</v>
       </c>
       <c r="G41" t="n">
-        <v>66.66666666666666</v>
+        <v>198.3481110486321</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2095,6 +1935,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2116,19 +1957,17 @@
         <v>107</v>
       </c>
       <c r="G42" t="n">
-        <v>69.23076923076923</v>
+        <v>305.3481110486321</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2138,6 +1977,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2159,19 +1999,17 @@
         <v>605.6423</v>
       </c>
       <c r="G43" t="n">
-        <v>63.63636363636363</v>
+        <v>305.3481110486321</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2181,6 +2019,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2202,19 +2041,17 @@
         <v>13562.0761</v>
       </c>
       <c r="G44" t="n">
-        <v>55.55555555555556</v>
+        <v>13867.42421104863</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2224,6 +2061,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2245,28 +2083,27 @@
         <v>1414.6421</v>
       </c>
       <c r="G45" t="n">
-        <v>55.55555555555556</v>
+        <v>13867.42421104863</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1.033461538461539</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2288,28 +2125,27 @@
         <v>5870.2571</v>
       </c>
       <c r="G46" t="n">
-        <v>16.66666666666666</v>
+        <v>7997.167111048632</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2331,19 +2167,17 @@
         <v>5251.7265</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>7997.167111048632</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2353,6 +2187,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2374,19 +2209,17 @@
         <v>5910.0907</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>2087.076411048633</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>267</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2396,6 +2229,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2417,19 +2251,17 @@
         <v>23089.0073</v>
       </c>
       <c r="G49" t="n">
-        <v>-55.55555555555556</v>
+        <v>-21001.93088895137</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2439,6 +2271,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2460,19 +2293,17 @@
         <v>1231.9479</v>
       </c>
       <c r="G50" t="n">
-        <v>-20</v>
+        <v>-19769.98298895137</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2482,6 +2313,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2503,19 +2335,17 @@
         <v>2317.5711</v>
       </c>
       <c r="G51" t="n">
-        <v>-9.090909090909092</v>
+        <v>-17452.41188895137</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>266</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2525,6 +2355,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2546,19 +2377,17 @@
         <v>1415.7024</v>
       </c>
       <c r="G52" t="n">
-        <v>-9.090909090909092</v>
+        <v>-17452.41188895137</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2568,6 +2397,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2589,19 +2419,17 @@
         <v>1521.5364</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>-15930.87548895137</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2611,6 +2439,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2632,19 +2461,17 @@
         <v>3318.4093</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.692307692307693</v>
+        <v>-19249.28478895137</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2654,6 +2481,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2675,19 +2503,17 @@
         <v>2972.4169</v>
       </c>
       <c r="G55" t="n">
-        <v>33.33333333333333</v>
+        <v>-16276.86788895137</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2697,6 +2523,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2718,19 +2545,17 @@
         <v>1277.8382</v>
       </c>
       <c r="G56" t="n">
-        <v>38.46153846153847</v>
+        <v>-14999.02968895137</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2740,6 +2565,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2761,28 +2587,27 @@
         <v>118.0297</v>
       </c>
       <c r="G57" t="n">
-        <v>28.57142857142857</v>
+        <v>-15117.05938895137</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>0.995</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2804,28 +2629,27 @@
         <v>1274.6436</v>
       </c>
       <c r="G58" t="n">
-        <v>28.57142857142857</v>
+        <v>-16391.70298895137</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2847,19 +2671,17 @@
         <v>2437.5148</v>
       </c>
       <c r="G59" t="n">
-        <v>28.57142857142857</v>
+        <v>-13954.18818895137</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>268</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2869,6 +2691,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2890,19 +2713,17 @@
         <v>23.8037</v>
       </c>
       <c r="G60" t="n">
-        <v>7.692307692307693</v>
+        <v>-13977.99188895137</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2912,6 +2733,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2933,19 +2755,17 @@
         <v>209.6731</v>
       </c>
       <c r="G61" t="n">
-        <v>14.28571428571428</v>
+        <v>-13768.31878895137</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2955,6 +2775,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2976,19 +2797,17 @@
         <v>2070.8572</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>-13768.31878895137</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2998,6 +2817,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3019,19 +2839,17 @@
         <v>1593.5873</v>
       </c>
       <c r="G63" t="n">
-        <v>16.66666666666666</v>
+        <v>-12174.73148895137</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3041,6 +2859,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3062,19 +2881,17 @@
         <v>4306.9038</v>
       </c>
       <c r="G64" t="n">
-        <v>9.090909090909092</v>
+        <v>-7867.827688951369</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3084,6 +2901,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3105,19 +2923,17 @@
         <v>1077.6849</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>-7867.827688951369</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3127,6 +2943,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3148,19 +2965,17 @@
         <v>127.729</v>
       </c>
       <c r="G66" t="n">
-        <v>25</v>
+        <v>-7867.827688951369</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3170,6 +2985,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3191,19 +3007,17 @@
         <v>11008.4468</v>
       </c>
       <c r="G67" t="n">
-        <v>71.42857142857143</v>
+        <v>3140.619111048631</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3213,6 +3027,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3234,19 +3049,17 @@
         <v>1048.8278</v>
       </c>
       <c r="G68" t="n">
-        <v>60</v>
+        <v>3140.619111048631</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3256,6 +3069,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3277,28 +3091,27 @@
         <v>133.2689</v>
       </c>
       <c r="G69" t="n">
-        <v>100</v>
+        <v>3140.619111048631</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1.009869888475837</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3320,28 +3133,27 @@
         <v>8358.771000000001</v>
       </c>
       <c r="G70" t="n">
-        <v>100</v>
+        <v>3140.619111048631</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3363,28 +3175,27 @@
         <v>3391.0265</v>
       </c>
       <c r="G71" t="n">
-        <v>20</v>
+        <v>-250.4073889513693</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3406,19 +3217,17 @@
         <v>13</v>
       </c>
       <c r="G72" t="n">
-        <v>33.33333333333333</v>
+        <v>-237.4073889513693</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3428,6 +3237,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3449,19 +3259,17 @@
         <v>21.242</v>
       </c>
       <c r="G73" t="n">
-        <v>20</v>
+        <v>-237.4073889513693</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3471,6 +3279,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3492,19 +3301,17 @@
         <v>103.2346</v>
       </c>
       <c r="G74" t="n">
-        <v>20</v>
+        <v>-237.4073889513693</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3514,6 +3321,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3535,19 +3343,17 @@
         <v>4011.8061</v>
       </c>
       <c r="G75" t="n">
-        <v>33.33333333333333</v>
+        <v>3774.398711048631</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3557,6 +3363,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3578,19 +3385,17 @@
         <v>8122.8834</v>
       </c>
       <c r="G76" t="n">
-        <v>20</v>
+        <v>3774.398711048631</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3600,6 +3405,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3621,19 +3427,17 @@
         <v>600.0974</v>
       </c>
       <c r="G77" t="n">
-        <v>20</v>
+        <v>3774.398711048631</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3643,6 +3447,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3664,19 +3469,17 @@
         <v>7771.2602</v>
       </c>
       <c r="G78" t="n">
-        <v>33.33333333333333</v>
+        <v>11545.65891104863</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3686,6 +3489,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3707,19 +3511,17 @@
         <v>8125.9938</v>
       </c>
       <c r="G79" t="n">
-        <v>42.85714285714285</v>
+        <v>19671.65271104863</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3729,6 +3531,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3750,19 +3553,17 @@
         <v>168</v>
       </c>
       <c r="G80" t="n">
-        <v>100</v>
+        <v>19671.65271104863</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3772,6 +3573,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3793,19 +3595,17 @@
         <v>2410</v>
       </c>
       <c r="G81" t="n">
-        <v>100</v>
+        <v>19671.65271104863</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3815,6 +3615,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3836,28 +3637,27 @@
         <v>7375.1525</v>
       </c>
       <c r="G82" t="n">
-        <v>100</v>
+        <v>19671.65271104863</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1.005989010989011</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3879,28 +3679,27 @@
         <v>3662.5804</v>
       </c>
       <c r="G83" t="n">
-        <v>100</v>
+        <v>19671.65271104863</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3922,24 +3721,27 @@
         <v>21.3369</v>
       </c>
       <c r="G84" t="n">
-        <v>100</v>
+        <v>19671.65271104863</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>276</v>
-      </c>
-      <c r="L84" t="inlineStr"/>
+        <v>257</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3961,28 +3763,27 @@
         <v>273</v>
       </c>
       <c r="G85" t="n">
-        <v>100</v>
+        <v>19671.65271104863</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4004,28 +3805,27 @@
         <v>1644.6017</v>
       </c>
       <c r="G86" t="n">
-        <v>33.33333333333333</v>
+        <v>18027.05101104863</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4047,19 +3847,17 @@
         <v>2018.53</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>18027.05101104863</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4069,6 +3867,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4090,19 +3889,17 @@
         <v>5744.0627</v>
       </c>
       <c r="G88" t="n">
-        <v>-100</v>
+        <v>18027.05101104863</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4112,6 +3909,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4133,19 +3931,17 @@
         <v>7743.1863</v>
       </c>
       <c r="G89" t="n">
-        <v>-100</v>
+        <v>10283.86471104863</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4155,6 +3951,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4176,19 +3973,17 @@
         <v>39.5534</v>
       </c>
       <c r="G90" t="n">
-        <v>-100</v>
+        <v>10283.86471104863</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4198,6 +3993,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4219,19 +4015,17 @@
         <v>15586.4626</v>
       </c>
       <c r="G91" t="n">
-        <v>-100</v>
+        <v>10283.86471104863</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4241,6 +4035,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4262,19 +4057,17 @@
         <v>10885.0605</v>
       </c>
       <c r="G92" t="n">
-        <v>-100</v>
+        <v>10283.86471104863</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4284,6 +4077,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4305,19 +4099,17 @@
         <v>2852.7421</v>
       </c>
       <c r="G93" t="n">
-        <v>-100</v>
+        <v>10283.86471104863</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4327,6 +4119,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4348,19 +4141,17 @@
         <v>150.2079</v>
       </c>
       <c r="G94" t="n">
-        <v>-100</v>
+        <v>10283.86471104863</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4370,6 +4161,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4391,19 +4183,17 @@
         <v>254.7669</v>
       </c>
       <c r="G95" t="n">
-        <v>-100</v>
+        <v>10283.86471104863</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4413,6 +4203,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4434,19 +4225,17 @@
         <v>989</v>
       </c>
       <c r="G96" t="n">
-        <v>-100</v>
+        <v>10283.86471104863</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4456,6 +4245,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4477,28 +4267,27 @@
         <v>3671.1985</v>
       </c>
       <c r="G97" t="n">
-        <v>-100</v>
+        <v>10283.86471104863</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>0.9805072463768116</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4519,27 +4308,28 @@
       <c r="F98" t="n">
         <v>3670</v>
       </c>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="n">
+        <v>10283.86471104863</v>
+      </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4560,23 +4350,28 @@
       <c r="F99" t="n">
         <v>8.6212</v>
       </c>
-      <c r="G99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>10283.86471104863</v>
+      </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>272</v>
-      </c>
-      <c r="L99" t="inlineStr"/>
+        <v>257</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4597,27 +4392,28 @@
       <c r="F100" t="n">
         <v>397.2297</v>
       </c>
-      <c r="G100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>10283.86471104863</v>
+      </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4638,27 +4434,28 @@
       <c r="F101" t="n">
         <v>420.2969</v>
       </c>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>10283.86471104863</v>
+      </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4680,24 +4477,27 @@
         <v>990</v>
       </c>
       <c r="G102" t="n">
-        <v>100</v>
+        <v>11273.86471104863</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="n">
-        <v>272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>272</v>
-      </c>
-      <c r="L102" t="inlineStr"/>
+        <v>257</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4719,28 +4519,27 @@
         <v>6142.8494</v>
       </c>
       <c r="G103" t="n">
-        <v>100</v>
+        <v>11273.86471104863</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4762,19 +4561,17 @@
         <v>300</v>
       </c>
       <c r="G104" t="n">
-        <v>33.33333333333333</v>
+        <v>10973.86471104863</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4784,6 +4581,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4805,19 +4603,17 @@
         <v>820.3549</v>
       </c>
       <c r="G105" t="n">
-        <v>60</v>
+        <v>11794.21961104863</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4827,6 +4623,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4848,19 +4645,17 @@
         <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>66.66666666666666</v>
+        <v>11795.21961104863</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4870,6 +4665,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4891,19 +4687,17 @@
         <v>1390.8042</v>
       </c>
       <c r="G107" t="n">
-        <v>71.42857142857143</v>
+        <v>13186.02381104863</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4913,6 +4707,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4934,19 +4729,17 @@
         <v>7339.1958</v>
       </c>
       <c r="G108" t="n">
-        <v>71.42857142857143</v>
+        <v>13186.02381104863</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4956,6 +4749,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4977,19 +4771,17 @@
         <v>9119.965207913669</v>
       </c>
       <c r="G109" t="n">
-        <v>75</v>
+        <v>22305.9890189623</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4999,6 +4791,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5020,19 +4813,17 @@
         <v>5331.6488</v>
       </c>
       <c r="G110" t="n">
-        <v>55.55555555555556</v>
+        <v>16974.3402189623</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5042,6 +4833,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5063,19 +4855,17 @@
         <v>242.7718</v>
       </c>
       <c r="G111" t="n">
-        <v>55.55555555555556</v>
+        <v>17217.1120189623</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5085,6 +4875,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5106,19 +4897,17 @@
         <v>10092.6086</v>
       </c>
       <c r="G112" t="n">
-        <v>60</v>
+        <v>27309.7206189623</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5128,6 +4917,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5149,27 +4939,28 @@
         <v>11779.7275</v>
       </c>
       <c r="G113" t="n">
-        <v>80</v>
+        <v>39089.4481189623</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
       </c>
-      <c r="J113" t="n">
-        <v>280</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M113" t="n">
-        <v>1</v>
+        <v>1.088385214007782</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1.031496062992126</v>
       </c>
     </row>
     <row r="114">
@@ -5192,28 +4983,21 @@
         <v>103.2892</v>
       </c>
       <c r="G114" t="n">
-        <v>55.55555555555556</v>
+        <v>38986.1589189623</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
-      <c r="J114" t="n">
-        <v>281</v>
-      </c>
-      <c r="K114" t="n">
-        <v>272</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>1.024411764705882</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5235,28 +5019,21 @@
         <v>1024.9427</v>
       </c>
       <c r="G115" t="n">
-        <v>50</v>
+        <v>38986.1589189623</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
-      <c r="J115" t="n">
-        <v>280</v>
-      </c>
-      <c r="K115" t="n">
-        <v>281</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5278,28 +5055,21 @@
         <v>22315.5385</v>
       </c>
       <c r="G116" t="n">
-        <v>50</v>
+        <v>61301.6974189623</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
-      <c r="J116" t="n">
-        <v>280</v>
-      </c>
-      <c r="K116" t="n">
-        <v>281</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5321,28 +5091,21 @@
         <v>2867.3834</v>
       </c>
       <c r="G117" t="n">
-        <v>50</v>
+        <v>61301.6974189623</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
-      <c r="J117" t="n">
-        <v>281</v>
-      </c>
-      <c r="K117" t="n">
-        <v>281</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5364,28 +5127,21 @@
         <v>15664.4054</v>
       </c>
       <c r="G118" t="n">
-        <v>42.85714285714285</v>
+        <v>61301.6974189623</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
-      <c r="J118" t="n">
-        <v>281</v>
-      </c>
-      <c r="K118" t="n">
-        <v>281</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-22 BackTest BAT.xlsx
+++ b/BackTest/2019-10-22 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -441,19 +441,19 @@
         <v>254</v>
       </c>
       <c r="C2" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E2" t="n">
         <v>254</v>
       </c>
       <c r="F2" t="n">
-        <v>6464.5886</v>
+        <v>3394.6594</v>
       </c>
       <c r="G2" t="n">
-        <v>-38652.45508895137</v>
+        <v>-29693.1141</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D3" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E3" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F3" t="n">
-        <v>46</v>
+        <v>3.937007874015748</v>
       </c>
       <c r="G3" t="n">
-        <v>-38652.45508895137</v>
+        <v>-29693.1141</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C4" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D4" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E4" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F4" t="n">
-        <v>19.2957</v>
+        <v>366.368</v>
       </c>
       <c r="G4" t="n">
-        <v>-38633.15938895137</v>
+        <v>-30059.48209999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C5" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D5" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E5" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F5" t="n">
-        <v>3386.1727</v>
+        <v>3240</v>
       </c>
       <c r="G5" t="n">
-        <v>-42019.33208895137</v>
+        <v>-30059.48209999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C6" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D6" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E6" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F6" t="n">
-        <v>37.9803</v>
+        <v>11535.9614</v>
       </c>
       <c r="G6" t="n">
-        <v>-41981.35178895137</v>
+        <v>-41595.44349999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C7" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D7" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E7" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F7" t="n">
-        <v>3140.0581</v>
+        <v>8469.9439</v>
       </c>
       <c r="G7" t="n">
-        <v>-38841.29368895137</v>
+        <v>-33125.4996</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C8" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D8" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E8" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F8" t="n">
-        <v>9732.184300000001</v>
+        <v>1010</v>
       </c>
       <c r="G8" t="n">
-        <v>-48573.47798895137</v>
+        <v>-34135.4996</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C9" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D9" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E9" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F9" t="n">
-        <v>99.75</v>
+        <v>550</v>
       </c>
       <c r="G9" t="n">
-        <v>-48573.47798895137</v>
+        <v>-34685.4996</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C10" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D10" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E10" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F10" t="n">
-        <v>39.0054</v>
+        <v>526.3809</v>
       </c>
       <c r="G10" t="n">
-        <v>-48534.47258895136</v>
+        <v>-34685.4996</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C11" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D11" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E11" t="n">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F11" t="n">
-        <v>3140.0581</v>
+        <v>4259.1263</v>
       </c>
       <c r="G11" t="n">
-        <v>-51674.53068895137</v>
+        <v>-34685.4996</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C12" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D12" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E12" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F12" t="n">
-        <v>1016</v>
+        <v>3472.6208</v>
       </c>
       <c r="G12" t="n">
-        <v>-50658.53068895137</v>
+        <v>-34685.4996</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C13" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D13" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E13" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1599</v>
+        <v>1615.384</v>
       </c>
       <c r="G13" t="n">
-        <v>-50658.53068895137</v>
+        <v>-36300.88359999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C14" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D14" t="n">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E14" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F14" t="n">
-        <v>1767</v>
+        <v>4053.444903174603</v>
       </c>
       <c r="G14" t="n">
-        <v>-50658.53068895137</v>
+        <v>-32247.43869682539</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C15" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D15" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E15" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F15" t="n">
-        <v>2755.3248</v>
+        <v>1693.6253</v>
       </c>
       <c r="G15" t="n">
-        <v>-50658.53068895137</v>
+        <v>-33941.06399682539</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C16" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D16" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E16" t="n">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F16" t="n">
-        <v>2063.5</v>
+        <v>0.0001</v>
       </c>
       <c r="G16" t="n">
-        <v>-50658.53068895137</v>
+        <v>-33941.06399682539</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C17" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D17" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E17" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F17" t="n">
-        <v>11718.4085</v>
+        <v>6143.3296</v>
       </c>
       <c r="G17" t="n">
-        <v>-50658.53068895137</v>
+        <v>-40084.39359682539</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C18" t="n">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D18" t="n">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E18" t="n">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>3430</v>
       </c>
       <c r="G18" t="n">
-        <v>-50647.53068895137</v>
+        <v>-43514.39359682539</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C19" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D19" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E19" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F19" t="n">
-        <v>1445.6995</v>
+        <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>-52093.23018895137</v>
+        <v>-43474.39359682539</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,31 +1086,35 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C20" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D20" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E20" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>5.08</v>
       </c>
       <c r="G20" t="n">
-        <v>-52104.23018895137</v>
+        <v>-43474.39359682539</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>250</v>
+      </c>
+      <c r="K20" t="n">
+        <v>250</v>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
@@ -1122,32 +1126,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="D21" t="n">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E21" t="n">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F21" t="n">
-        <v>605.6423</v>
+        <v>3384.9982</v>
       </c>
       <c r="G21" t="n">
-        <v>-51498.58788895137</v>
+        <v>-46859.39179682539</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>250</v>
+      </c>
+      <c r="K21" t="n">
+        <v>250</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1170,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C22" t="n">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D22" t="n">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E22" t="n">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="F22" t="n">
-        <v>3026.9348</v>
+        <v>9958.619500000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-48471.65308895137</v>
+        <v>-46859.39179682539</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>249</v>
+      </c>
+      <c r="K22" t="n">
+        <v>250</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,31 +1214,35 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C23" t="n">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D23" t="n">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="E23" t="n">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F23" t="n">
-        <v>802.5363</v>
+        <v>1100</v>
       </c>
       <c r="G23" t="n">
-        <v>-48471.65308895137</v>
+        <v>-45759.39179682539</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>249</v>
+      </c>
+      <c r="K23" t="n">
+        <v>249</v>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
@@ -1230,32 +1254,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C24" t="n">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D24" t="n">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E24" t="n">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F24" t="n">
-        <v>2099.9808</v>
+        <v>389.0199</v>
       </c>
       <c r="G24" t="n">
-        <v>-48471.65308895137</v>
+        <v>-45370.37189682539</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>250</v>
+      </c>
+      <c r="K24" t="n">
+        <v>249</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1298,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C25" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D25" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="E25" t="n">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="G25" t="n">
-        <v>-48501.65308895137</v>
+        <v>-46370.37189682539</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>251</v>
+      </c>
+      <c r="K25" t="n">
+        <v>249</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,31 +1342,35 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C26" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D26" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E26" t="n">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F26" t="n">
-        <v>1095.3065</v>
+        <v>15.1091</v>
       </c>
       <c r="G26" t="n">
-        <v>-49596.95958895137</v>
+        <v>-46355.26279682539</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>249</v>
+      </c>
+      <c r="K26" t="n">
+        <v>249</v>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1338,32 +1382,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C27" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D27" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E27" t="n">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F27" t="n">
-        <v>3026.9348</v>
+        <v>1900.8415</v>
       </c>
       <c r="G27" t="n">
-        <v>-52623.89438895137</v>
+        <v>-46355.26279682539</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>250</v>
+      </c>
+      <c r="K27" t="n">
+        <v>249</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1426,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C28" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D28" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E28" t="n">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F28" t="n">
-        <v>3137.6287</v>
+        <v>234.2821</v>
       </c>
       <c r="G28" t="n">
-        <v>-52623.89438895137</v>
+        <v>-46120.98069682539</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>250</v>
+      </c>
+      <c r="K28" t="n">
+        <v>249</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,31 +1470,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C29" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D29" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E29" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F29" t="n">
-        <v>2011</v>
+        <v>1000</v>
       </c>
       <c r="G29" t="n">
-        <v>-52623.89438895137</v>
+        <v>-45120.98069682539</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>251</v>
+      </c>
+      <c r="K29" t="n">
+        <v>251</v>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
@@ -1446,32 +1510,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C30" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D30" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E30" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F30" t="n">
-        <v>233</v>
+        <v>3.937007874015748</v>
       </c>
       <c r="G30" t="n">
-        <v>-52623.89438895137</v>
+        <v>-45117.04368895137</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>252</v>
+      </c>
+      <c r="K30" t="n">
+        <v>251</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,32 +1554,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C31" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D31" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E31" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F31" t="n">
-        <v>3218.6104</v>
+        <v>6464.5886</v>
       </c>
       <c r="G31" t="n">
-        <v>-52623.89438895137</v>
+        <v>-38652.45508895137</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>254</v>
+      </c>
+      <c r="K31" t="n">
+        <v>251</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1598,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C32" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D32" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E32" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F32" t="n">
-        <v>780</v>
+        <v>46</v>
       </c>
       <c r="G32" t="n">
-        <v>-51843.89438895137</v>
+        <v>-38652.45508895137</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1542,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K32" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
@@ -1558,34 +1638,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C33" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D33" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E33" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F33" t="n">
-        <v>2135.6551</v>
+        <v>19.2957</v>
       </c>
       <c r="G33" t="n">
-        <v>-51843.89438895137</v>
+        <v>-38633.15938895137</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>260</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1602,34 +1680,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C34" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D34" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E34" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F34" t="n">
-        <v>5839.0711</v>
+        <v>3386.1727</v>
       </c>
       <c r="G34" t="n">
-        <v>-46004.82328895137</v>
+        <v>-42019.33208895137</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>260</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1646,40 +1722,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C35" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D35" t="n">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E35" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F35" t="n">
-        <v>27993.1517</v>
+        <v>37.9803</v>
       </c>
       <c r="G35" t="n">
-        <v>-18011.67158895137</v>
+        <v>-41981.35178895137</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>262</v>
-      </c>
-      <c r="K35" t="n">
-        <v>257</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1690,22 +1758,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C36" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D36" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E36" t="n">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F36" t="n">
-        <v>8000</v>
+        <v>3140.0581</v>
       </c>
       <c r="G36" t="n">
-        <v>-18011.67158895137</v>
+        <v>-38841.29368895137</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1714,14 +1782,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>257</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1732,22 +1794,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C37" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D37" t="n">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E37" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F37" t="n">
-        <v>4626.2351</v>
+        <v>9732.184300000001</v>
       </c>
       <c r="G37" t="n">
-        <v>-18011.67158895137</v>
+        <v>-48573.47798895137</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1756,14 +1818,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>257</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1774,22 +1830,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C38" t="n">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D38" t="n">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E38" t="n">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F38" t="n">
-        <v>13078.6177</v>
+        <v>99.75</v>
       </c>
       <c r="G38" t="n">
-        <v>-4933.053888951368</v>
+        <v>-48573.47798895137</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1798,14 +1854,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>257</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1816,22 +1866,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C39" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D39" t="n">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E39" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F39" t="n">
-        <v>3600</v>
+        <v>39.0054</v>
       </c>
       <c r="G39" t="n">
-        <v>-8533.053888951368</v>
+        <v>-48534.47258895136</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1840,14 +1890,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>257</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1858,22 +1902,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C40" t="n">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D40" t="n">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E40" t="n">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="F40" t="n">
-        <v>9706.5694</v>
+        <v>3140.0581</v>
       </c>
       <c r="G40" t="n">
-        <v>1173.515511048632</v>
+        <v>-51674.53068895137</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1882,14 +1926,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>257</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1900,22 +1938,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C41" t="n">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D41" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E41" t="n">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F41" t="n">
-        <v>975.1674</v>
+        <v>1016</v>
       </c>
       <c r="G41" t="n">
-        <v>198.3481110486321</v>
+        <v>-50658.53068895137</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1924,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>257</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1942,22 +1974,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C42" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D42" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E42" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F42" t="n">
-        <v>107</v>
+        <v>234.1599</v>
       </c>
       <c r="G42" t="n">
-        <v>305.3481110486321</v>
+        <v>-50658.53068895137</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1966,14 +1998,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>257</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1984,22 +2010,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C43" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D43" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E43" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F43" t="n">
-        <v>605.6423</v>
+        <v>1767</v>
       </c>
       <c r="G43" t="n">
-        <v>305.3481110486321</v>
+        <v>-50658.53068895137</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2008,14 +2034,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>257</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2026,22 +2046,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C44" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D44" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E44" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F44" t="n">
-        <v>13562.0761</v>
+        <v>2755.3248</v>
       </c>
       <c r="G44" t="n">
-        <v>13867.42421104863</v>
+        <v>-50658.53068895137</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2050,14 +2070,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>257</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2068,22 +2082,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C45" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D45" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E45" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F45" t="n">
-        <v>1414.6421</v>
+        <v>2063.5</v>
       </c>
       <c r="G45" t="n">
-        <v>13867.42421104863</v>
+        <v>-50658.53068895137</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2092,14 +2106,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>257</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2110,22 +2118,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C46" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D46" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E46" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F46" t="n">
-        <v>5870.2571</v>
+        <v>11718.4085</v>
       </c>
       <c r="G46" t="n">
-        <v>7997.167111048632</v>
+        <v>-50658.53068895137</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2134,14 +2142,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>257</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2152,22 +2154,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C47" t="n">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D47" t="n">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E47" t="n">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F47" t="n">
-        <v>5251.7265</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>7997.167111048632</v>
+        <v>-50647.53068895137</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2176,14 +2178,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>257</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2194,22 +2190,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C48" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D48" t="n">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="E48" t="n">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F48" t="n">
-        <v>5910.0907</v>
+        <v>1445.6995</v>
       </c>
       <c r="G48" t="n">
-        <v>2087.076411048633</v>
+        <v>-52093.23018895137</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2218,14 +2214,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>257</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2236,22 +2226,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C49" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D49" t="n">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E49" t="n">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F49" t="n">
-        <v>23089.0073</v>
+        <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>-21001.93088895137</v>
+        <v>-52104.23018895137</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2260,14 +2250,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>257</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2278,22 +2262,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C50" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D50" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E50" t="n">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F50" t="n">
-        <v>1231.9479</v>
+        <v>605.6423</v>
       </c>
       <c r="G50" t="n">
-        <v>-19769.98298895137</v>
+        <v>-51498.58788895137</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2302,14 +2286,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>257</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2320,22 +2298,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C51" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D51" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E51" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F51" t="n">
-        <v>2317.5711</v>
+        <v>3026.9348</v>
       </c>
       <c r="G51" t="n">
-        <v>-17452.41188895137</v>
+        <v>-48471.65308895137</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2344,14 +2322,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>257</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2362,22 +2334,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C52" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D52" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="E52" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F52" t="n">
-        <v>1415.7024</v>
+        <v>802.5363</v>
       </c>
       <c r="G52" t="n">
-        <v>-17452.41188895137</v>
+        <v>-48471.65308895137</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2386,14 +2358,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>257</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2404,22 +2370,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C53" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D53" t="n">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E53" t="n">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F53" t="n">
-        <v>1521.5364</v>
+        <v>2099.9808</v>
       </c>
       <c r="G53" t="n">
-        <v>-15930.87548895137</v>
+        <v>-48471.65308895137</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2428,14 +2394,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>257</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2446,22 +2406,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C54" t="n">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="D54" t="n">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E54" t="n">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F54" t="n">
-        <v>3318.4093</v>
+        <v>30</v>
       </c>
       <c r="G54" t="n">
-        <v>-19249.28478895137</v>
+        <v>-48501.65308895137</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2470,14 +2430,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>257</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2488,22 +2442,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C55" t="n">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D55" t="n">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="E55" t="n">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="F55" t="n">
-        <v>2972.4169</v>
+        <v>1095.3065</v>
       </c>
       <c r="G55" t="n">
-        <v>-16276.86788895137</v>
+        <v>-49596.95958895137</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2512,14 +2466,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>257</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2530,22 +2478,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C56" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D56" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="E56" t="n">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="F56" t="n">
-        <v>1277.8382</v>
+        <v>3026.9348</v>
       </c>
       <c r="G56" t="n">
-        <v>-14999.02968895137</v>
+        <v>-52623.89438895137</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2554,14 +2502,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>257</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2572,22 +2514,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C57" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D57" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E57" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="F57" t="n">
-        <v>118.0297</v>
+        <v>3137.6287</v>
       </c>
       <c r="G57" t="n">
-        <v>-15117.05938895137</v>
+        <v>-52623.89438895137</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2596,14 +2538,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>257</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2614,22 +2550,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C58" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D58" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E58" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F58" t="n">
-        <v>1274.6436</v>
+        <v>2011</v>
       </c>
       <c r="G58" t="n">
-        <v>-16391.70298895137</v>
+        <v>-52623.89438895137</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2638,14 +2574,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>257</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2656,22 +2586,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C59" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D59" t="n">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="E59" t="n">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F59" t="n">
-        <v>2437.5148</v>
+        <v>233</v>
       </c>
       <c r="G59" t="n">
-        <v>-13954.18818895137</v>
+        <v>-52623.89438895137</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2680,14 +2610,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>257</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2698,22 +2622,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C60" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D60" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E60" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F60" t="n">
-        <v>23.8037</v>
+        <v>3218.6104</v>
       </c>
       <c r="G60" t="n">
-        <v>-13977.99188895137</v>
+        <v>-52623.89438895137</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2722,14 +2646,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>257</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2740,38 +2658,36 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C61" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D61" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E61" t="n">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F61" t="n">
-        <v>209.6731</v>
+        <v>780</v>
       </c>
       <c r="G61" t="n">
-        <v>-13768.31878895137</v>
+        <v>-51843.89438895137</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>257</v>
+      </c>
       <c r="K61" t="n">
         <v>257</v>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2782,22 +2698,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C62" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D62" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E62" t="n">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F62" t="n">
-        <v>2070.8572</v>
+        <v>2135.6551</v>
       </c>
       <c r="G62" t="n">
-        <v>-13768.31878895137</v>
+        <v>-51843.89438895137</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2811,7 +2727,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -2824,22 +2740,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C63" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="D63" t="n">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E63" t="n">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="F63" t="n">
-        <v>1593.5873</v>
+        <v>5839.0711</v>
       </c>
       <c r="G63" t="n">
-        <v>-12174.73148895137</v>
+        <v>-46004.82328895137</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2853,7 +2769,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -2866,22 +2782,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C64" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D64" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E64" t="n">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F64" t="n">
-        <v>4306.9038</v>
+        <v>27993.1517</v>
       </c>
       <c r="G64" t="n">
-        <v>-7867.827688951369</v>
+        <v>-18011.67158895137</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2890,14 +2806,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>257</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2908,22 +2818,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C65" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D65" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="E65" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F65" t="n">
-        <v>1077.6849</v>
+        <v>8000</v>
       </c>
       <c r="G65" t="n">
-        <v>-7867.827688951369</v>
+        <v>-18011.67158895137</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2932,14 +2842,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>257</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2950,22 +2854,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C66" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D66" t="n">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E66" t="n">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F66" t="n">
-        <v>127.729</v>
+        <v>4626.2351</v>
       </c>
       <c r="G66" t="n">
-        <v>-7867.827688951369</v>
+        <v>-18011.67158895137</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2974,14 +2878,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>257</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2992,22 +2890,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C67" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D67" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E67" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F67" t="n">
-        <v>11008.4468</v>
+        <v>13078.6177</v>
       </c>
       <c r="G67" t="n">
-        <v>3140.619111048631</v>
+        <v>-4933.053888951368</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3016,14 +2914,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>257</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3034,22 +2926,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C68" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D68" t="n">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E68" t="n">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F68" t="n">
-        <v>1048.8278</v>
+        <v>3600</v>
       </c>
       <c r="G68" t="n">
-        <v>3140.619111048631</v>
+        <v>-8533.053888951368</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3058,14 +2950,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>257</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3076,22 +2962,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C69" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D69" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E69" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F69" t="n">
-        <v>133.2689</v>
+        <v>9706.5694</v>
       </c>
       <c r="G69" t="n">
-        <v>3140.619111048631</v>
+        <v>1173.515511048632</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3100,14 +2986,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>257</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3118,22 +2998,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C70" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D70" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E70" t="n">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F70" t="n">
-        <v>8358.771000000001</v>
+        <v>975.1674</v>
       </c>
       <c r="G70" t="n">
-        <v>3140.619111048631</v>
+        <v>198.3481110486321</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3142,14 +3022,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>257</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3160,22 +3034,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C71" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D71" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E71" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F71" t="n">
-        <v>3391.0265</v>
+        <v>107</v>
       </c>
       <c r="G71" t="n">
-        <v>-250.4073889513693</v>
+        <v>305.3481110486321</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3184,14 +3058,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>257</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3202,22 +3070,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C72" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D72" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E72" t="n">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F72" t="n">
-        <v>13</v>
+        <v>605.6423</v>
       </c>
       <c r="G72" t="n">
-        <v>-237.4073889513693</v>
+        <v>305.3481110486321</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3226,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>257</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3244,22 +3106,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C73" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D73" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E73" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F73" t="n">
-        <v>21.242</v>
+        <v>13562.0761</v>
       </c>
       <c r="G73" t="n">
-        <v>-237.4073889513693</v>
+        <v>13867.42421104863</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3268,14 +3130,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>257</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3286,22 +3142,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C74" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D74" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E74" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F74" t="n">
-        <v>103.2346</v>
+        <v>1414.6421</v>
       </c>
       <c r="G74" t="n">
-        <v>-237.4073889513693</v>
+        <v>13867.42421104863</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3310,14 +3166,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>257</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3328,22 +3178,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C75" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D75" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E75" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F75" t="n">
-        <v>4011.8061</v>
+        <v>5870.2571</v>
       </c>
       <c r="G75" t="n">
-        <v>3774.398711048631</v>
+        <v>7997.167111048632</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3352,14 +3202,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>257</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3370,22 +3214,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C76" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D76" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E76" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F76" t="n">
-        <v>8122.8834</v>
+        <v>5251.7265</v>
       </c>
       <c r="G76" t="n">
-        <v>3774.398711048631</v>
+        <v>7997.167111048632</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3394,14 +3238,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>257</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3412,22 +3250,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C77" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D77" t="n">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E77" t="n">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="F77" t="n">
-        <v>600.0974</v>
+        <v>5910.0907</v>
       </c>
       <c r="G77" t="n">
-        <v>3774.398711048631</v>
+        <v>2087.076411048633</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3436,14 +3274,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>257</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3454,22 +3286,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C78" t="n">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D78" t="n">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E78" t="n">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F78" t="n">
-        <v>7771.2602</v>
+        <v>23089.0073</v>
       </c>
       <c r="G78" t="n">
-        <v>11545.65891104863</v>
+        <v>-21001.93088895137</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3478,14 +3310,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>257</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3496,22 +3322,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C79" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="D79" t="n">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E79" t="n">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F79" t="n">
-        <v>8125.9938</v>
+        <v>1231.9479</v>
       </c>
       <c r="G79" t="n">
-        <v>19671.65271104863</v>
+        <v>-19769.98298895137</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3520,14 +3346,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>257</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3538,22 +3358,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C80" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D80" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E80" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F80" t="n">
-        <v>168</v>
+        <v>2317.5711</v>
       </c>
       <c r="G80" t="n">
-        <v>19671.65271104863</v>
+        <v>-17452.41188895137</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3562,14 +3382,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>257</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3580,22 +3394,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C81" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D81" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="E81" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F81" t="n">
-        <v>2410</v>
+        <v>1415.7024</v>
       </c>
       <c r="G81" t="n">
-        <v>19671.65271104863</v>
+        <v>-17452.41188895137</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3604,14 +3418,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>257</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3622,22 +3430,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C82" t="n">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D82" t="n">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E82" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F82" t="n">
-        <v>7375.1525</v>
+        <v>1521.5364</v>
       </c>
       <c r="G82" t="n">
-        <v>19671.65271104863</v>
+        <v>-15930.87548895137</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3646,14 +3454,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>257</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3664,22 +3466,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C83" t="n">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D83" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E83" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="F83" t="n">
-        <v>3662.5804</v>
+        <v>3318.4093</v>
       </c>
       <c r="G83" t="n">
-        <v>19671.65271104863</v>
+        <v>-19249.28478895137</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3688,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>257</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3706,22 +3502,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C84" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D84" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E84" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F84" t="n">
-        <v>21.3369</v>
+        <v>2972.4169</v>
       </c>
       <c r="G84" t="n">
-        <v>19671.65271104863</v>
+        <v>-16276.86788895137</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3730,14 +3526,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>257</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3748,22 +3538,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C85" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D85" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E85" t="n">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F85" t="n">
-        <v>273</v>
+        <v>1277.8382</v>
       </c>
       <c r="G85" t="n">
-        <v>19671.65271104863</v>
+        <v>-14999.02968895137</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3772,14 +3562,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>257</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3790,22 +3574,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C86" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D86" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E86" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F86" t="n">
-        <v>1644.6017</v>
+        <v>118.0297</v>
       </c>
       <c r="G86" t="n">
-        <v>18027.05101104863</v>
+        <v>-15117.05938895137</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3814,14 +3598,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>257</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3832,22 +3610,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C87" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D87" t="n">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E87" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F87" t="n">
-        <v>2018.53</v>
+        <v>1274.6436</v>
       </c>
       <c r="G87" t="n">
-        <v>18027.05101104863</v>
+        <v>-16391.70298895137</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3856,14 +3634,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>257</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3874,22 +3646,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C88" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D88" t="n">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E88" t="n">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F88" t="n">
-        <v>5744.0627</v>
+        <v>2437.5148</v>
       </c>
       <c r="G88" t="n">
-        <v>18027.05101104863</v>
+        <v>-13954.18818895137</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3898,14 +3670,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>257</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3916,22 +3682,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C89" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D89" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E89" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F89" t="n">
-        <v>7743.1863</v>
+        <v>23.8037</v>
       </c>
       <c r="G89" t="n">
-        <v>10283.86471104863</v>
+        <v>-13977.99188895137</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3940,14 +3706,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>257</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3958,22 +3718,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C90" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D90" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E90" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F90" t="n">
-        <v>39.5534</v>
+        <v>209.6731</v>
       </c>
       <c r="G90" t="n">
-        <v>10283.86471104863</v>
+        <v>-13768.31878895137</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3982,14 +3742,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>257</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4000,22 +3754,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C91" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D91" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E91" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F91" t="n">
-        <v>15586.4626</v>
+        <v>2070.8572</v>
       </c>
       <c r="G91" t="n">
-        <v>10283.86471104863</v>
+        <v>-13768.31878895137</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4024,14 +3778,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>257</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4042,22 +3790,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C92" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D92" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E92" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F92" t="n">
-        <v>10885.0605</v>
+        <v>1593.5873</v>
       </c>
       <c r="G92" t="n">
-        <v>10283.86471104863</v>
+        <v>-12174.73148895137</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4066,14 +3814,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>257</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4084,7 +3826,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C93" t="n">
         <v>272</v>
@@ -4093,13 +3835,13 @@
         <v>272</v>
       </c>
       <c r="E93" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F93" t="n">
-        <v>2852.7421</v>
+        <v>4306.9038</v>
       </c>
       <c r="G93" t="n">
-        <v>10283.86471104863</v>
+        <v>-7867.827688951369</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4108,14 +3850,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>257</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4138,10 +3874,10 @@
         <v>272</v>
       </c>
       <c r="F94" t="n">
-        <v>150.2079</v>
+        <v>1077.6849</v>
       </c>
       <c r="G94" t="n">
-        <v>10283.86471104863</v>
+        <v>-7867.827688951369</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4150,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>257</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4180,10 +3910,10 @@
         <v>272</v>
       </c>
       <c r="F95" t="n">
-        <v>254.7669</v>
+        <v>127.729</v>
       </c>
       <c r="G95" t="n">
-        <v>10283.86471104863</v>
+        <v>-7867.827688951369</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4192,14 +3922,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>257</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4210,22 +3934,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C96" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D96" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E96" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F96" t="n">
-        <v>989</v>
+        <v>11008.4468</v>
       </c>
       <c r="G96" t="n">
-        <v>10283.86471104863</v>
+        <v>3140.619111048631</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4234,14 +3958,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>257</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4252,22 +3970,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C97" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E97" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F97" t="n">
-        <v>3671.1985</v>
+        <v>1048.8278</v>
       </c>
       <c r="G97" t="n">
-        <v>10283.86471104863</v>
+        <v>3140.619111048631</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4276,14 +3994,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>257</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4294,22 +4006,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C98" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E98" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F98" t="n">
-        <v>3670</v>
+        <v>133.2689</v>
       </c>
       <c r="G98" t="n">
-        <v>10283.86471104863</v>
+        <v>3140.619111048631</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4318,14 +4030,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>257</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4336,22 +4042,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C99" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D99" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E99" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F99" t="n">
-        <v>8.6212</v>
+        <v>8358.771000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>10283.86471104863</v>
+        <v>3140.619111048631</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4360,14 +4066,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>257</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4378,22 +4078,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C100" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D100" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E100" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F100" t="n">
-        <v>397.2297</v>
+        <v>3391.0265</v>
       </c>
       <c r="G100" t="n">
-        <v>10283.86471104863</v>
+        <v>-250.4073889513693</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4402,14 +4102,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>257</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4420,22 +4114,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C101" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D101" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E101" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F101" t="n">
-        <v>420.2969</v>
+        <v>13</v>
       </c>
       <c r="G101" t="n">
-        <v>10283.86471104863</v>
+        <v>-237.4073889513693</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4444,14 +4138,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>257</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4465,19 +4153,19 @@
         <v>273</v>
       </c>
       <c r="C102" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D102" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E102" t="n">
         <v>273</v>
       </c>
       <c r="F102" t="n">
-        <v>990</v>
+        <v>21.242</v>
       </c>
       <c r="G102" t="n">
-        <v>11273.86471104863</v>
+        <v>-237.4073889513693</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4486,14 +4174,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>257</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4504,22 +4186,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C103" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D103" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E103" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F103" t="n">
-        <v>6142.8494</v>
+        <v>103.2346</v>
       </c>
       <c r="G103" t="n">
-        <v>11273.86471104863</v>
+        <v>-237.4073889513693</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4528,14 +4210,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>257</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4546,22 +4222,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C104" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D104" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E104" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>4011.8061</v>
       </c>
       <c r="G104" t="n">
-        <v>10973.86471104863</v>
+        <v>3774.398711048631</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4570,14 +4246,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>257</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4588,38 +4258,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C105" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D105" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E105" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F105" t="n">
-        <v>820.3549</v>
+        <v>8122.8834</v>
       </c>
       <c r="G105" t="n">
-        <v>11794.21961104863</v>
+        <v>3774.398711048631</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>257</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4630,38 +4294,32 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C106" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D106" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E106" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>600.0974</v>
       </c>
       <c r="G106" t="n">
-        <v>11795.21961104863</v>
+        <v>3774.398711048631</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>257</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4672,38 +4330,32 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C107" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D107" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E107" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F107" t="n">
-        <v>1390.8042</v>
+        <v>7771.2602</v>
       </c>
       <c r="G107" t="n">
-        <v>13186.02381104863</v>
+        <v>11545.65891104863</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>257</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4714,38 +4366,32 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C108" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D108" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E108" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F108" t="n">
-        <v>7339.1958</v>
+        <v>8125.9938</v>
       </c>
       <c r="G108" t="n">
-        <v>13186.02381104863</v>
+        <v>19671.65271104863</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>257</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4756,38 +4402,32 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C109" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D109" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E109" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F109" t="n">
-        <v>9119.965207913669</v>
+        <v>168</v>
       </c>
       <c r="G109" t="n">
-        <v>22305.9890189623</v>
+        <v>19671.65271104863</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>257</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4798,38 +4438,32 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C110" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D110" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E110" t="n">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F110" t="n">
-        <v>5331.6488</v>
+        <v>2410</v>
       </c>
       <c r="G110" t="n">
-        <v>16974.3402189623</v>
+        <v>19671.65271104863</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>257</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4840,38 +4474,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C111" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D111" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E111" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F111" t="n">
-        <v>242.7718</v>
+        <v>7375.1525</v>
       </c>
       <c r="G111" t="n">
-        <v>17217.1120189623</v>
+        <v>19671.65271104863</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>257</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4882,22 +4510,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C112" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D112" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E112" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F112" t="n">
-        <v>10092.6086</v>
+        <v>3662.5804</v>
       </c>
       <c r="G112" t="n">
-        <v>27309.7206189623</v>
+        <v>19671.65271104863</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4906,14 +4534,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>257</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4924,72 +4546,64 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C113" t="n">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D113" t="n">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E113" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F113" t="n">
-        <v>11779.7275</v>
+        <v>21.3369</v>
       </c>
       <c r="G113" t="n">
-        <v>39089.4481189623</v>
+        <v>19671.65271104863</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>257</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>1.088385214007782</v>
-      </c>
-      <c r="N113" t="n">
-        <v>1.031496062992126</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C114" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D114" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E114" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F114" t="n">
-        <v>103.2892</v>
+        <v>273</v>
       </c>
       <c r="G114" t="n">
-        <v>38986.1589189623</v>
+        <v>19671.65271104863</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -5004,28 +4618,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C115" t="n">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D115" t="n">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E115" t="n">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F115" t="n">
-        <v>1024.9427</v>
+        <v>1644.6017</v>
       </c>
       <c r="G115" t="n">
-        <v>38986.1589189623</v>
+        <v>18027.05101104863</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -5040,28 +4654,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C116" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D116" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E116" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F116" t="n">
-        <v>22315.5385</v>
+        <v>2018.53</v>
       </c>
       <c r="G116" t="n">
-        <v>61301.6974189623</v>
+        <v>18027.05101104863</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -5076,28 +4690,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C117" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D117" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E117" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F117" t="n">
-        <v>2867.3834</v>
+        <v>5744.0627</v>
       </c>
       <c r="G117" t="n">
-        <v>61301.6974189623</v>
+        <v>18027.05101104863</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5112,22 +4726,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C118" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D118" t="n">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E118" t="n">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F118" t="n">
-        <v>15664.4054</v>
+        <v>7743.1863</v>
       </c>
       <c r="G118" t="n">
-        <v>61301.6974189623</v>
+        <v>10283.86471104863</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5143,6 +4757,1050 @@
       </c>
       <c r="N118" t="inlineStr"/>
     </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>272</v>
+      </c>
+      <c r="C119" t="n">
+        <v>272</v>
+      </c>
+      <c r="D119" t="n">
+        <v>272</v>
+      </c>
+      <c r="E119" t="n">
+        <v>272</v>
+      </c>
+      <c r="F119" t="n">
+        <v>39.5534</v>
+      </c>
+      <c r="G119" t="n">
+        <v>10283.86471104863</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>273</v>
+      </c>
+      <c r="C120" t="n">
+        <v>272</v>
+      </c>
+      <c r="D120" t="n">
+        <v>273</v>
+      </c>
+      <c r="E120" t="n">
+        <v>272</v>
+      </c>
+      <c r="F120" t="n">
+        <v>15586.4626</v>
+      </c>
+      <c r="G120" t="n">
+        <v>10283.86471104863</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>273</v>
+      </c>
+      <c r="C121" t="n">
+        <v>272</v>
+      </c>
+      <c r="D121" t="n">
+        <v>273</v>
+      </c>
+      <c r="E121" t="n">
+        <v>272</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10885.0605</v>
+      </c>
+      <c r="G121" t="n">
+        <v>10283.86471104863</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>272</v>
+      </c>
+      <c r="C122" t="n">
+        <v>272</v>
+      </c>
+      <c r="D122" t="n">
+        <v>272</v>
+      </c>
+      <c r="E122" t="n">
+        <v>272</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2852.7421</v>
+      </c>
+      <c r="G122" t="n">
+        <v>10283.86471104863</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>272</v>
+      </c>
+      <c r="C123" t="n">
+        <v>272</v>
+      </c>
+      <c r="D123" t="n">
+        <v>272</v>
+      </c>
+      <c r="E123" t="n">
+        <v>272</v>
+      </c>
+      <c r="F123" t="n">
+        <v>150.2079</v>
+      </c>
+      <c r="G123" t="n">
+        <v>10283.86471104863</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>272</v>
+      </c>
+      <c r="C124" t="n">
+        <v>272</v>
+      </c>
+      <c r="D124" t="n">
+        <v>272</v>
+      </c>
+      <c r="E124" t="n">
+        <v>272</v>
+      </c>
+      <c r="F124" t="n">
+        <v>254.7669</v>
+      </c>
+      <c r="G124" t="n">
+        <v>10283.86471104863</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>272</v>
+      </c>
+      <c r="C125" t="n">
+        <v>272</v>
+      </c>
+      <c r="D125" t="n">
+        <v>272</v>
+      </c>
+      <c r="E125" t="n">
+        <v>272</v>
+      </c>
+      <c r="F125" t="n">
+        <v>989</v>
+      </c>
+      <c r="G125" t="n">
+        <v>10283.86471104863</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>272</v>
+      </c>
+      <c r="C126" t="n">
+        <v>272</v>
+      </c>
+      <c r="D126" t="n">
+        <v>272</v>
+      </c>
+      <c r="E126" t="n">
+        <v>272</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3671.1985</v>
+      </c>
+      <c r="G126" t="n">
+        <v>10283.86471104863</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>272</v>
+      </c>
+      <c r="C127" t="n">
+        <v>272</v>
+      </c>
+      <c r="D127" t="n">
+        <v>272</v>
+      </c>
+      <c r="E127" t="n">
+        <v>272</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3670</v>
+      </c>
+      <c r="G127" t="n">
+        <v>10283.86471104863</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>272</v>
+      </c>
+      <c r="C128" t="n">
+        <v>272</v>
+      </c>
+      <c r="D128" t="n">
+        <v>272</v>
+      </c>
+      <c r="E128" t="n">
+        <v>272</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8.6212</v>
+      </c>
+      <c r="G128" t="n">
+        <v>10283.86471104863</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>272</v>
+      </c>
+      <c r="C129" t="n">
+        <v>272</v>
+      </c>
+      <c r="D129" t="n">
+        <v>272</v>
+      </c>
+      <c r="E129" t="n">
+        <v>272</v>
+      </c>
+      <c r="F129" t="n">
+        <v>397.2297</v>
+      </c>
+      <c r="G129" t="n">
+        <v>10283.86471104863</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>272</v>
+      </c>
+      <c r="C130" t="n">
+        <v>272</v>
+      </c>
+      <c r="D130" t="n">
+        <v>272</v>
+      </c>
+      <c r="E130" t="n">
+        <v>272</v>
+      </c>
+      <c r="F130" t="n">
+        <v>420.2969</v>
+      </c>
+      <c r="G130" t="n">
+        <v>10283.86471104863</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>273</v>
+      </c>
+      <c r="C131" t="n">
+        <v>274</v>
+      </c>
+      <c r="D131" t="n">
+        <v>274</v>
+      </c>
+      <c r="E131" t="n">
+        <v>273</v>
+      </c>
+      <c r="F131" t="n">
+        <v>990</v>
+      </c>
+      <c r="G131" t="n">
+        <v>11273.86471104863</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>272</v>
+      </c>
+      <c r="C132" t="n">
+        <v>274</v>
+      </c>
+      <c r="D132" t="n">
+        <v>274</v>
+      </c>
+      <c r="E132" t="n">
+        <v>272</v>
+      </c>
+      <c r="F132" t="n">
+        <v>6142.8494</v>
+      </c>
+      <c r="G132" t="n">
+        <v>11273.86471104863</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>273</v>
+      </c>
+      <c r="C133" t="n">
+        <v>273</v>
+      </c>
+      <c r="D133" t="n">
+        <v>273</v>
+      </c>
+      <c r="E133" t="n">
+        <v>273</v>
+      </c>
+      <c r="F133" t="n">
+        <v>300</v>
+      </c>
+      <c r="G133" t="n">
+        <v>10973.86471104863</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>275</v>
+      </c>
+      <c r="C134" t="n">
+        <v>275</v>
+      </c>
+      <c r="D134" t="n">
+        <v>275</v>
+      </c>
+      <c r="E134" t="n">
+        <v>275</v>
+      </c>
+      <c r="F134" t="n">
+        <v>820.3549</v>
+      </c>
+      <c r="G134" t="n">
+        <v>11794.21961104863</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>276</v>
+      </c>
+      <c r="C135" t="n">
+        <v>276</v>
+      </c>
+      <c r="D135" t="n">
+        <v>276</v>
+      </c>
+      <c r="E135" t="n">
+        <v>276</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>11795.21961104863</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>277</v>
+      </c>
+      <c r="C136" t="n">
+        <v>277</v>
+      </c>
+      <c r="D136" t="n">
+        <v>277</v>
+      </c>
+      <c r="E136" t="n">
+        <v>277</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1390.8042</v>
+      </c>
+      <c r="G136" t="n">
+        <v>13186.02381104863</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>277</v>
+      </c>
+      <c r="C137" t="n">
+        <v>277</v>
+      </c>
+      <c r="D137" t="n">
+        <v>277</v>
+      </c>
+      <c r="E137" t="n">
+        <v>277</v>
+      </c>
+      <c r="F137" t="n">
+        <v>7339.1958</v>
+      </c>
+      <c r="G137" t="n">
+        <v>13186.02381104863</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>278</v>
+      </c>
+      <c r="C138" t="n">
+        <v>278</v>
+      </c>
+      <c r="D138" t="n">
+        <v>278</v>
+      </c>
+      <c r="E138" t="n">
+        <v>278</v>
+      </c>
+      <c r="F138" t="n">
+        <v>9119.965207913669</v>
+      </c>
+      <c r="G138" t="n">
+        <v>22305.9890189623</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>278</v>
+      </c>
+      <c r="C139" t="n">
+        <v>277</v>
+      </c>
+      <c r="D139" t="n">
+        <v>278</v>
+      </c>
+      <c r="E139" t="n">
+        <v>277</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5331.6488</v>
+      </c>
+      <c r="G139" t="n">
+        <v>16974.3402189623</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>279</v>
+      </c>
+      <c r="C140" t="n">
+        <v>279</v>
+      </c>
+      <c r="D140" t="n">
+        <v>279</v>
+      </c>
+      <c r="E140" t="n">
+        <v>279</v>
+      </c>
+      <c r="F140" t="n">
+        <v>242.7718</v>
+      </c>
+      <c r="G140" t="n">
+        <v>17217.1120189623</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>279</v>
+      </c>
+      <c r="C141" t="n">
+        <v>280</v>
+      </c>
+      <c r="D141" t="n">
+        <v>280</v>
+      </c>
+      <c r="E141" t="n">
+        <v>279</v>
+      </c>
+      <c r="F141" t="n">
+        <v>10092.6086</v>
+      </c>
+      <c r="G141" t="n">
+        <v>27309.7206189623</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>280</v>
+      </c>
+      <c r="C142" t="n">
+        <v>281</v>
+      </c>
+      <c r="D142" t="n">
+        <v>281</v>
+      </c>
+      <c r="E142" t="n">
+        <v>280</v>
+      </c>
+      <c r="F142" t="n">
+        <v>11779.7275</v>
+      </c>
+      <c r="G142" t="n">
+        <v>39089.4481189623</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>280</v>
+      </c>
+      <c r="C143" t="n">
+        <v>280</v>
+      </c>
+      <c r="D143" t="n">
+        <v>280</v>
+      </c>
+      <c r="E143" t="n">
+        <v>280</v>
+      </c>
+      <c r="F143" t="n">
+        <v>103.2892</v>
+      </c>
+      <c r="G143" t="n">
+        <v>38986.1589189623</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>278</v>
+      </c>
+      <c r="C144" t="n">
+        <v>280</v>
+      </c>
+      <c r="D144" t="n">
+        <v>280</v>
+      </c>
+      <c r="E144" t="n">
+        <v>278</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1024.9427</v>
+      </c>
+      <c r="G144" t="n">
+        <v>38986.1589189623</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>281</v>
+      </c>
+      <c r="C145" t="n">
+        <v>281</v>
+      </c>
+      <c r="D145" t="n">
+        <v>281</v>
+      </c>
+      <c r="E145" t="n">
+        <v>281</v>
+      </c>
+      <c r="F145" t="n">
+        <v>22315.5385</v>
+      </c>
+      <c r="G145" t="n">
+        <v>61301.6974189623</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>281</v>
+      </c>
+      <c r="C146" t="n">
+        <v>281</v>
+      </c>
+      <c r="D146" t="n">
+        <v>281</v>
+      </c>
+      <c r="E146" t="n">
+        <v>281</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2867.3834</v>
+      </c>
+      <c r="G146" t="n">
+        <v>61301.6974189623</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>281</v>
+      </c>
+      <c r="C147" t="n">
+        <v>281</v>
+      </c>
+      <c r="D147" t="n">
+        <v>281</v>
+      </c>
+      <c r="E147" t="n">
+        <v>281</v>
+      </c>
+      <c r="F147" t="n">
+        <v>15664.4054</v>
+      </c>
+      <c r="G147" t="n">
+        <v>61301.6974189623</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-22 BackTest BAT.xlsx
+++ b/BackTest/2019-10-22 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N147"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,22 +1045,15 @@
         <v>-43474.39359682539</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>250</v>
-      </c>
-      <c r="K20" t="n">
-        <v>250</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1144,1596 +1078,1462 @@
         <v>-46859.39179682539</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>249</v>
+      </c>
+      <c r="C22" t="n">
+        <v>249</v>
+      </c>
+      <c r="D22" t="n">
+        <v>249</v>
+      </c>
+      <c r="E22" t="n">
+        <v>249</v>
+      </c>
+      <c r="F22" t="n">
+        <v>9958.619500000001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-46859.39179682539</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
         <v>250</v>
       </c>
-      <c r="K21" t="n">
+      <c r="C23" t="n">
         <v>250</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="D23" t="n">
+        <v>250</v>
+      </c>
+      <c r="E23" t="n">
+        <v>250</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-45759.39179682539</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>251</v>
+      </c>
+      <c r="C24" t="n">
+        <v>251</v>
+      </c>
+      <c r="D24" t="n">
+        <v>251</v>
+      </c>
+      <c r="E24" t="n">
+        <v>251</v>
+      </c>
+      <c r="F24" t="n">
+        <v>389.0199</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-45370.37189682539</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>250</v>
+      </c>
+      <c r="J24" t="n">
+        <v>250</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>249</v>
+      </c>
+      <c r="C25" t="n">
+        <v>249</v>
+      </c>
+      <c r="D25" t="n">
+        <v>249</v>
+      </c>
+      <c r="E25" t="n">
+        <v>249</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-46370.37189682539</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>251</v>
+      </c>
+      <c r="J25" t="n">
+        <v>250</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>250</v>
+      </c>
+      <c r="C26" t="n">
+        <v>250</v>
+      </c>
+      <c r="D26" t="n">
+        <v>250</v>
+      </c>
+      <c r="E26" t="n">
+        <v>250</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15.1091</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-46355.26279682539</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
         <v>249</v>
       </c>
-      <c r="C22" t="n">
-        <v>249</v>
-      </c>
-      <c r="D22" t="n">
-        <v>249</v>
-      </c>
-      <c r="E22" t="n">
-        <v>249</v>
-      </c>
-      <c r="F22" t="n">
-        <v>9958.619500000001</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-46859.39179682539</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>249</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J26" t="n">
         <v>250</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>250</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C27" t="n">
         <v>250</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D27" t="n">
         <v>250</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E27" t="n">
         <v>250</v>
       </c>
-      <c r="F23" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-45759.39179682539</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>249</v>
-      </c>
-      <c r="K23" t="n">
-        <v>249</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
+      <c r="F27" t="n">
+        <v>1900.8415</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-46355.26279682539</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>250</v>
+      </c>
+      <c r="J27" t="n">
+        <v>250</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>251</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C28" t="n">
         <v>251</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D28" t="n">
         <v>251</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E28" t="n">
         <v>251</v>
       </c>
-      <c r="F24" t="n">
-        <v>389.0199</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-45370.37189682539</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="F28" t="n">
+        <v>234.2821</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-46120.98069682539</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
         <v>250</v>
       </c>
-      <c r="K24" t="n">
-        <v>249</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="J28" t="n">
+        <v>250</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>249</v>
-      </c>
-      <c r="C25" t="n">
-        <v>249</v>
-      </c>
-      <c r="D25" t="n">
-        <v>249</v>
-      </c>
-      <c r="E25" t="n">
-        <v>249</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>252</v>
+      </c>
+      <c r="C29" t="n">
+        <v>252</v>
+      </c>
+      <c r="D29" t="n">
+        <v>252</v>
+      </c>
+      <c r="E29" t="n">
+        <v>252</v>
+      </c>
+      <c r="F29" t="n">
         <v>1000</v>
       </c>
-      <c r="G25" t="n">
-        <v>-46370.37189682539</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="G29" t="n">
+        <v>-45120.98069682539</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
         <v>251</v>
       </c>
-      <c r="K25" t="n">
-        <v>249</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="J29" t="n">
+        <v>250</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>250</v>
-      </c>
-      <c r="C26" t="n">
-        <v>250</v>
-      </c>
-      <c r="D26" t="n">
-        <v>250</v>
-      </c>
-      <c r="E26" t="n">
-        <v>250</v>
-      </c>
-      <c r="F26" t="n">
-        <v>15.1091</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-46355.26279682539</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>249</v>
-      </c>
-      <c r="K26" t="n">
-        <v>249</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>250</v>
-      </c>
-      <c r="C27" t="n">
-        <v>250</v>
-      </c>
-      <c r="D27" t="n">
-        <v>250</v>
-      </c>
-      <c r="E27" t="n">
-        <v>250</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1900.8415</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-46355.26279682539</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>250</v>
-      </c>
-      <c r="K27" t="n">
-        <v>249</v>
-      </c>
-      <c r="L27" t="inlineStr">
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>254</v>
+      </c>
+      <c r="C30" t="n">
+        <v>254</v>
+      </c>
+      <c r="D30" t="n">
+        <v>254</v>
+      </c>
+      <c r="E30" t="n">
+        <v>254</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.937007874015748</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-45117.04368895137</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" t="n">
+        <v>252</v>
+      </c>
+      <c r="J30" t="n">
+        <v>252</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>254</v>
+      </c>
+      <c r="C31" t="n">
+        <v>255</v>
+      </c>
+      <c r="D31" t="n">
+        <v>255</v>
+      </c>
+      <c r="E31" t="n">
+        <v>254</v>
+      </c>
+      <c r="F31" t="n">
+        <v>6464.5886</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-38652.45508895137</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>254</v>
+      </c>
+      <c r="J31" t="n">
+        <v>252</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>251</v>
-      </c>
-      <c r="C28" t="n">
-        <v>251</v>
-      </c>
-      <c r="D28" t="n">
-        <v>251</v>
-      </c>
-      <c r="E28" t="n">
-        <v>251</v>
-      </c>
-      <c r="F28" t="n">
-        <v>234.2821</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-46120.98069682539</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>250</v>
-      </c>
-      <c r="K28" t="n">
-        <v>249</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>255</v>
+      </c>
+      <c r="C32" t="n">
+        <v>255</v>
+      </c>
+      <c r="D32" t="n">
+        <v>255</v>
+      </c>
+      <c r="E32" t="n">
+        <v>255</v>
+      </c>
+      <c r="F32" t="n">
+        <v>46</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-38652.45508895137</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+      <c r="I32" t="n">
+        <v>255</v>
+      </c>
+      <c r="J32" t="n">
+        <v>252</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>252</v>
-      </c>
-      <c r="C29" t="n">
-        <v>252</v>
-      </c>
-      <c r="D29" t="n">
-        <v>252</v>
-      </c>
-      <c r="E29" t="n">
-        <v>252</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-45120.98069682539</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>251</v>
-      </c>
-      <c r="K29" t="n">
-        <v>251</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>254</v>
-      </c>
-      <c r="C30" t="n">
-        <v>254</v>
-      </c>
-      <c r="D30" t="n">
-        <v>254</v>
-      </c>
-      <c r="E30" t="n">
-        <v>254</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3.937007874015748</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-45117.04368895137</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>252</v>
-      </c>
-      <c r="K30" t="n">
-        <v>251</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>257</v>
+      </c>
+      <c r="C33" t="n">
+        <v>257</v>
+      </c>
+      <c r="D33" t="n">
+        <v>257</v>
+      </c>
+      <c r="E33" t="n">
+        <v>257</v>
+      </c>
+      <c r="F33" t="n">
+        <v>19.2957</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-38633.15938895137</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" t="n">
+        <v>255</v>
+      </c>
+      <c r="J33" t="n">
+        <v>255</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>256</v>
+      </c>
+      <c r="C34" t="n">
+        <v>256</v>
+      </c>
+      <c r="D34" t="n">
+        <v>256</v>
+      </c>
+      <c r="E34" t="n">
+        <v>256</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3386.1727</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-42019.33208895137</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>255</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>254</v>
-      </c>
-      <c r="C31" t="n">
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>257</v>
+      </c>
+      <c r="C35" t="n">
+        <v>257</v>
+      </c>
+      <c r="D35" t="n">
+        <v>257</v>
+      </c>
+      <c r="E35" t="n">
+        <v>257</v>
+      </c>
+      <c r="F35" t="n">
+        <v>37.9803</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-41981.35178895137</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>255</v>
       </c>
-      <c r="D31" t="n">
-        <v>255</v>
-      </c>
-      <c r="E31" t="n">
-        <v>254</v>
-      </c>
-      <c r="F31" t="n">
-        <v>6464.5886</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-38652.45508895137</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>254</v>
-      </c>
-      <c r="K31" t="n">
-        <v>251</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>258</v>
+      </c>
+      <c r="C36" t="n">
+        <v>258</v>
+      </c>
+      <c r="D36" t="n">
+        <v>258</v>
+      </c>
+      <c r="E36" t="n">
+        <v>258</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3140.0581</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-38841.29368895137</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>256</v>
+      </c>
+      <c r="C37" t="n">
+        <v>256</v>
+      </c>
+      <c r="D37" t="n">
+        <v>256</v>
+      </c>
+      <c r="E37" t="n">
+        <v>256</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9732.184300000001</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-48573.47798895137</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>256</v>
+      </c>
+      <c r="C38" t="n">
+        <v>256</v>
+      </c>
+      <c r="D38" t="n">
+        <v>256</v>
+      </c>
+      <c r="E38" t="n">
+        <v>256</v>
+      </c>
+      <c r="F38" t="n">
+        <v>99.75</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-48573.47798895137</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>257</v>
+      </c>
+      <c r="C39" t="n">
+        <v>257</v>
+      </c>
+      <c r="D39" t="n">
+        <v>257</v>
+      </c>
+      <c r="E39" t="n">
+        <v>257</v>
+      </c>
+      <c r="F39" t="n">
+        <v>39.0054</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-48534.47258895136</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>256</v>
+      </c>
+      <c r="C40" t="n">
+        <v>256</v>
+      </c>
+      <c r="D40" t="n">
+        <v>256</v>
+      </c>
+      <c r="E40" t="n">
+        <v>256</v>
+      </c>
+      <c r="F40" t="n">
+        <v>3140.0581</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-51674.53068895137</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>258</v>
+      </c>
+      <c r="C41" t="n">
+        <v>258</v>
+      </c>
+      <c r="D41" t="n">
+        <v>258</v>
+      </c>
+      <c r="E41" t="n">
+        <v>258</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1016</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-50658.53068895137</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>258</v>
+      </c>
+      <c r="C42" t="n">
+        <v>258</v>
+      </c>
+      <c r="D42" t="n">
+        <v>258</v>
+      </c>
+      <c r="E42" t="n">
+        <v>258</v>
+      </c>
+      <c r="F42" t="n">
+        <v>234.1599</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-50658.53068895137</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>258</v>
+      </c>
+      <c r="C43" t="n">
+        <v>258</v>
+      </c>
+      <c r="D43" t="n">
+        <v>258</v>
+      </c>
+      <c r="E43" t="n">
+        <v>258</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1767</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-50658.53068895137</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>258</v>
+      </c>
+      <c r="C44" t="n">
+        <v>258</v>
+      </c>
+      <c r="D44" t="n">
+        <v>258</v>
+      </c>
+      <c r="E44" t="n">
+        <v>258</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2755.3248</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-50658.53068895137</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>258</v>
+      </c>
+      <c r="C45" t="n">
+        <v>258</v>
+      </c>
+      <c r="D45" t="n">
+        <v>258</v>
+      </c>
+      <c r="E45" t="n">
+        <v>258</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2063.5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-50658.53068895137</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>258</v>
+      </c>
+      <c r="C46" t="n">
+        <v>258</v>
+      </c>
+      <c r="D46" t="n">
+        <v>258</v>
+      </c>
+      <c r="E46" t="n">
+        <v>258</v>
+      </c>
+      <c r="F46" t="n">
+        <v>11718.4085</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-50658.53068895137</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>260</v>
+      </c>
+      <c r="C47" t="n">
+        <v>260</v>
+      </c>
+      <c r="D47" t="n">
+        <v>260</v>
+      </c>
+      <c r="E47" t="n">
+        <v>260</v>
+      </c>
+      <c r="F47" t="n">
+        <v>11</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-50647.53068895137</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>258</v>
+      </c>
+      <c r="C48" t="n">
+        <v>258</v>
+      </c>
+      <c r="D48" t="n">
+        <v>258</v>
+      </c>
+      <c r="E48" t="n">
+        <v>258</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1445.6995</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-52093.23018895137</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>257</v>
+      </c>
+      <c r="C49" t="n">
+        <v>257</v>
+      </c>
+      <c r="D49" t="n">
+        <v>257</v>
+      </c>
+      <c r="E49" t="n">
+        <v>257</v>
+      </c>
+      <c r="F49" t="n">
+        <v>11</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-52104.23018895137</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>260</v>
+      </c>
+      <c r="C50" t="n">
+        <v>260</v>
+      </c>
+      <c r="D50" t="n">
+        <v>260</v>
+      </c>
+      <c r="E50" t="n">
+        <v>260</v>
+      </c>
+      <c r="F50" t="n">
+        <v>605.6423</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-51498.58788895137</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>261</v>
+      </c>
+      <c r="C51" t="n">
+        <v>261</v>
+      </c>
+      <c r="D51" t="n">
+        <v>261</v>
+      </c>
+      <c r="E51" t="n">
+        <v>261</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3026.9348</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-48471.65308895137</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>261</v>
+      </c>
+      <c r="C52" t="n">
+        <v>261</v>
+      </c>
+      <c r="D52" t="n">
+        <v>261</v>
+      </c>
+      <c r="E52" t="n">
+        <v>261</v>
+      </c>
+      <c r="F52" t="n">
+        <v>802.5363</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-48471.65308895137</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>261</v>
+      </c>
+      <c r="C53" t="n">
+        <v>261</v>
+      </c>
+      <c r="D53" t="n">
+        <v>261</v>
+      </c>
+      <c r="E53" t="n">
+        <v>261</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2099.9808</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-48471.65308895137</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>259</v>
+      </c>
+      <c r="C54" t="n">
+        <v>259</v>
+      </c>
+      <c r="D54" t="n">
+        <v>259</v>
+      </c>
+      <c r="E54" t="n">
+        <v>259</v>
+      </c>
+      <c r="F54" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>255</v>
-      </c>
-      <c r="C32" t="n">
-        <v>255</v>
-      </c>
-      <c r="D32" t="n">
-        <v>255</v>
-      </c>
-      <c r="E32" t="n">
-        <v>255</v>
-      </c>
-      <c r="F32" t="n">
-        <v>46</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-38652.45508895137</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>255</v>
-      </c>
-      <c r="K32" t="n">
-        <v>255</v>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
+      <c r="G54" t="n">
+        <v>-48501.65308895137</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>258</v>
+      </c>
+      <c r="C55" t="n">
+        <v>258</v>
+      </c>
+      <c r="D55" t="n">
+        <v>258</v>
+      </c>
+      <c r="E55" t="n">
+        <v>258</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1095.3065</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-49596.95958895137</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
         <v>257</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C56" t="n">
         <v>257</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D56" t="n">
         <v>257</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E56" t="n">
         <v>257</v>
       </c>
-      <c r="F33" t="n">
-        <v>19.2957</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-38633.15938895137</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>255</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="F56" t="n">
+        <v>3026.9348</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-52623.89438895137</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>257</v>
+      </c>
+      <c r="C57" t="n">
+        <v>257</v>
+      </c>
+      <c r="D57" t="n">
+        <v>257</v>
+      </c>
+      <c r="E57" t="n">
+        <v>257</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3137.6287</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-52623.89438895137</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>257</v>
+      </c>
+      <c r="C58" t="n">
+        <v>257</v>
+      </c>
+      <c r="D58" t="n">
+        <v>257</v>
+      </c>
+      <c r="E58" t="n">
+        <v>257</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2011</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-52623.89438895137</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>257</v>
+      </c>
+      <c r="C59" t="n">
+        <v>257</v>
+      </c>
+      <c r="D59" t="n">
+        <v>257</v>
+      </c>
+      <c r="E59" t="n">
+        <v>257</v>
+      </c>
+      <c r="F59" t="n">
+        <v>233</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-52623.89438895137</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>257</v>
+      </c>
+      <c r="C60" t="n">
+        <v>257</v>
+      </c>
+      <c r="D60" t="n">
+        <v>257</v>
+      </c>
+      <c r="E60" t="n">
+        <v>257</v>
+      </c>
+      <c r="F60" t="n">
+        <v>3218.6104</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-52623.89438895137</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+      <c r="I60" t="n">
+        <v>257</v>
+      </c>
+      <c r="J60" t="n">
+        <v>257</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>258</v>
+      </c>
+      <c r="C61" t="n">
+        <v>260</v>
+      </c>
+      <c r="D61" t="n">
+        <v>260</v>
+      </c>
+      <c r="E61" t="n">
+        <v>258</v>
+      </c>
+      <c r="F61" t="n">
+        <v>780</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-51843.89438895137</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+      <c r="I61" t="n">
+        <v>257</v>
+      </c>
+      <c r="J61" t="n">
+        <v>257</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>256</v>
-      </c>
-      <c r="C34" t="n">
-        <v>256</v>
-      </c>
-      <c r="D34" t="n">
-        <v>256</v>
-      </c>
-      <c r="E34" t="n">
-        <v>256</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3386.1727</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-42019.33208895137</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>255</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>260</v>
+      </c>
+      <c r="C62" t="n">
+        <v>260</v>
+      </c>
+      <c r="D62" t="n">
+        <v>260</v>
+      </c>
+      <c r="E62" t="n">
+        <v>260</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2135.6551</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-51843.89438895137</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>257</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>257</v>
-      </c>
-      <c r="C35" t="n">
-        <v>257</v>
-      </c>
-      <c r="D35" t="n">
-        <v>257</v>
-      </c>
-      <c r="E35" t="n">
-        <v>257</v>
-      </c>
-      <c r="F35" t="n">
-        <v>37.9803</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-41981.35178895137</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>258</v>
-      </c>
-      <c r="C36" t="n">
-        <v>258</v>
-      </c>
-      <c r="D36" t="n">
-        <v>258</v>
-      </c>
-      <c r="E36" t="n">
-        <v>258</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3140.0581</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-38841.29368895137</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>256</v>
-      </c>
-      <c r="C37" t="n">
-        <v>256</v>
-      </c>
-      <c r="D37" t="n">
-        <v>256</v>
-      </c>
-      <c r="E37" t="n">
-        <v>256</v>
-      </c>
-      <c r="F37" t="n">
-        <v>9732.184300000001</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-48573.47798895137</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>256</v>
-      </c>
-      <c r="C38" t="n">
-        <v>256</v>
-      </c>
-      <c r="D38" t="n">
-        <v>256</v>
-      </c>
-      <c r="E38" t="n">
-        <v>256</v>
-      </c>
-      <c r="F38" t="n">
-        <v>99.75</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-48573.47798895137</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>257</v>
-      </c>
-      <c r="C39" t="n">
-        <v>257</v>
-      </c>
-      <c r="D39" t="n">
-        <v>257</v>
-      </c>
-      <c r="E39" t="n">
-        <v>257</v>
-      </c>
-      <c r="F39" t="n">
-        <v>39.0054</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-48534.47258895136</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>256</v>
-      </c>
-      <c r="C40" t="n">
-        <v>256</v>
-      </c>
-      <c r="D40" t="n">
-        <v>256</v>
-      </c>
-      <c r="E40" t="n">
-        <v>256</v>
-      </c>
-      <c r="F40" t="n">
-        <v>3140.0581</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-51674.53068895137</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>258</v>
-      </c>
-      <c r="C41" t="n">
-        <v>258</v>
-      </c>
-      <c r="D41" t="n">
-        <v>258</v>
-      </c>
-      <c r="E41" t="n">
-        <v>258</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1016</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-50658.53068895137</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>258</v>
-      </c>
-      <c r="C42" t="n">
-        <v>258</v>
-      </c>
-      <c r="D42" t="n">
-        <v>258</v>
-      </c>
-      <c r="E42" t="n">
-        <v>258</v>
-      </c>
-      <c r="F42" t="n">
-        <v>234.1599</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-50658.53068895137</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>258</v>
-      </c>
-      <c r="C43" t="n">
-        <v>258</v>
-      </c>
-      <c r="D43" t="n">
-        <v>258</v>
-      </c>
-      <c r="E43" t="n">
-        <v>258</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1767</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-50658.53068895137</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>258</v>
-      </c>
-      <c r="C44" t="n">
-        <v>258</v>
-      </c>
-      <c r="D44" t="n">
-        <v>258</v>
-      </c>
-      <c r="E44" t="n">
-        <v>258</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2755.3248</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-50658.53068895137</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>258</v>
-      </c>
-      <c r="C45" t="n">
-        <v>258</v>
-      </c>
-      <c r="D45" t="n">
-        <v>258</v>
-      </c>
-      <c r="E45" t="n">
-        <v>258</v>
-      </c>
-      <c r="F45" t="n">
-        <v>2063.5</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-50658.53068895137</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>258</v>
-      </c>
-      <c r="C46" t="n">
-        <v>258</v>
-      </c>
-      <c r="D46" t="n">
-        <v>258</v>
-      </c>
-      <c r="E46" t="n">
-        <v>258</v>
-      </c>
-      <c r="F46" t="n">
-        <v>11718.4085</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-50658.53068895137</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>260</v>
-      </c>
-      <c r="C47" t="n">
-        <v>260</v>
-      </c>
-      <c r="D47" t="n">
-        <v>260</v>
-      </c>
-      <c r="E47" t="n">
-        <v>260</v>
-      </c>
-      <c r="F47" t="n">
-        <v>11</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-50647.53068895137</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>258</v>
-      </c>
-      <c r="C48" t="n">
-        <v>258</v>
-      </c>
-      <c r="D48" t="n">
-        <v>258</v>
-      </c>
-      <c r="E48" t="n">
-        <v>258</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1445.6995</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-52093.23018895137</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>257</v>
-      </c>
-      <c r="C49" t="n">
-        <v>257</v>
-      </c>
-      <c r="D49" t="n">
-        <v>257</v>
-      </c>
-      <c r="E49" t="n">
-        <v>257</v>
-      </c>
-      <c r="F49" t="n">
-        <v>11</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-52104.23018895137</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>260</v>
-      </c>
-      <c r="C50" t="n">
-        <v>260</v>
-      </c>
-      <c r="D50" t="n">
-        <v>260</v>
-      </c>
-      <c r="E50" t="n">
-        <v>260</v>
-      </c>
-      <c r="F50" t="n">
-        <v>605.6423</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-51498.58788895137</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>261</v>
-      </c>
-      <c r="C51" t="n">
-        <v>261</v>
-      </c>
-      <c r="D51" t="n">
-        <v>261</v>
-      </c>
-      <c r="E51" t="n">
-        <v>261</v>
-      </c>
-      <c r="F51" t="n">
-        <v>3026.9348</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-48471.65308895137</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>261</v>
-      </c>
-      <c r="C52" t="n">
-        <v>261</v>
-      </c>
-      <c r="D52" t="n">
-        <v>261</v>
-      </c>
-      <c r="E52" t="n">
-        <v>261</v>
-      </c>
-      <c r="F52" t="n">
-        <v>802.5363</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-48471.65308895137</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>261</v>
-      </c>
-      <c r="C53" t="n">
-        <v>261</v>
-      </c>
-      <c r="D53" t="n">
-        <v>261</v>
-      </c>
-      <c r="E53" t="n">
-        <v>261</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2099.9808</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-48471.65308895137</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>259</v>
-      </c>
-      <c r="C54" t="n">
-        <v>259</v>
-      </c>
-      <c r="D54" t="n">
-        <v>259</v>
-      </c>
-      <c r="E54" t="n">
-        <v>259</v>
-      </c>
-      <c r="F54" t="n">
-        <v>30</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-48501.65308895137</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>258</v>
-      </c>
-      <c r="C55" t="n">
-        <v>258</v>
-      </c>
-      <c r="D55" t="n">
-        <v>258</v>
-      </c>
-      <c r="E55" t="n">
-        <v>258</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1095.3065</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-49596.95958895137</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>257</v>
-      </c>
-      <c r="C56" t="n">
-        <v>257</v>
-      </c>
-      <c r="D56" t="n">
-        <v>257</v>
-      </c>
-      <c r="E56" t="n">
-        <v>257</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3026.9348</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-52623.89438895137</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>257</v>
-      </c>
-      <c r="C57" t="n">
-        <v>257</v>
-      </c>
-      <c r="D57" t="n">
-        <v>257</v>
-      </c>
-      <c r="E57" t="n">
-        <v>257</v>
-      </c>
-      <c r="F57" t="n">
-        <v>3137.6287</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-52623.89438895137</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>257</v>
-      </c>
-      <c r="C58" t="n">
-        <v>257</v>
-      </c>
-      <c r="D58" t="n">
-        <v>257</v>
-      </c>
-      <c r="E58" t="n">
-        <v>257</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2011</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-52623.89438895137</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>257</v>
-      </c>
-      <c r="C59" t="n">
-        <v>257</v>
-      </c>
-      <c r="D59" t="n">
-        <v>257</v>
-      </c>
-      <c r="E59" t="n">
-        <v>257</v>
-      </c>
-      <c r="F59" t="n">
-        <v>233</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-52623.89438895137</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>257</v>
-      </c>
-      <c r="C60" t="n">
-        <v>257</v>
-      </c>
-      <c r="D60" t="n">
-        <v>257</v>
-      </c>
-      <c r="E60" t="n">
-        <v>257</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3218.6104</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-52623.89438895137</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>258</v>
-      </c>
-      <c r="C61" t="n">
-        <v>260</v>
-      </c>
-      <c r="D61" t="n">
-        <v>260</v>
-      </c>
-      <c r="E61" t="n">
-        <v>258</v>
-      </c>
-      <c r="F61" t="n">
-        <v>780</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-51843.89438895137</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>257</v>
-      </c>
-      <c r="K61" t="n">
-        <v>257</v>
-      </c>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>260</v>
-      </c>
-      <c r="C62" t="n">
-        <v>260</v>
-      </c>
-      <c r="D62" t="n">
-        <v>260</v>
-      </c>
-      <c r="E62" t="n">
-        <v>260</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2135.6551</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-51843.89438895137</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>257</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2760,22 +2560,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>257</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2802,16 +2593,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2838,16 +2626,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2874,16 +2659,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2910,16 +2692,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2944,18 +2723,15 @@
         <v>-8533.053888951368</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2980,18 +2756,15 @@
         <v>1173.515511048632</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3018,16 +2791,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3054,16 +2824,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3088,18 +2855,15 @@
         <v>305.3481110486321</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3126,16 +2890,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3162,16 +2923,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3198,16 +2956,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3232,18 +2987,15 @@
         <v>7997.167111048632</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3270,16 +3022,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3306,16 +3055,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3342,16 +3088,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3376,18 +3119,15 @@
         <v>-17452.41188895137</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3412,18 +3152,15 @@
         <v>-17452.41188895137</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3450,16 +3187,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3486,16 +3220,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3522,16 +3253,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3558,16 +3286,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3594,16 +3319,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3630,16 +3352,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3666,16 +3385,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3702,16 +3418,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3738,16 +3451,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3774,16 +3484,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3808,18 +3515,15 @@
         <v>-12174.73148895137</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3844,18 +3548,15 @@
         <v>-7867.827688951369</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3880,18 +3581,15 @@
         <v>-7867.827688951369</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3918,16 +3616,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3954,16 +3649,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3988,18 +3680,15 @@
         <v>3140.619111048631</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4026,16 +3715,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4062,16 +3748,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4096,18 +3779,15 @@
         <v>-250.4073889513693</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4132,18 +3812,15 @@
         <v>-237.4073889513693</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4168,18 +3845,15 @@
         <v>-237.4073889513693</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4206,16 +3880,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4240,18 +3911,15 @@
         <v>3774.398711048631</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4276,18 +3944,15 @@
         <v>3774.398711048631</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4314,16 +3979,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4350,16 +4012,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4386,16 +4045,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4422,16 +4078,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4458,16 +4111,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4494,16 +4144,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4530,16 +4177,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4566,16 +4210,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4602,16 +4243,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4638,16 +4276,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4674,16 +4309,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4710,16 +4342,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4746,16 +4375,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4782,16 +4408,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4818,16 +4441,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4854,16 +4474,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4890,16 +4507,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4926,16 +4540,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4962,16 +4573,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4996,18 +4604,15 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5034,16 +4639,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5070,16 +4672,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5106,16 +4705,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5142,16 +4738,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5178,16 +4771,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5214,16 +4804,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5250,16 +4837,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5286,16 +4870,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5322,16 +4903,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5358,16 +4936,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5394,16 +4969,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5430,16 +5002,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5466,16 +5035,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5502,16 +5068,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5538,16 +5101,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5572,18 +5132,15 @@
         <v>27309.7206189623</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5608,18 +5165,15 @@
         <v>39089.4481189623</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5644,18 +5198,15 @@
         <v>38986.1589189623</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5680,18 +5231,15 @@
         <v>38986.1589189623</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5716,18 +5264,15 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5752,18 +5297,15 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5788,20 +5330,17 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest BAT.xlsx
+++ b/BackTest/2019-10-22 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,10 +946,14 @@
         <v>-40084.39359682539</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>251</v>
+      </c>
+      <c r="J17" t="n">
+        <v>251</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -982,8 +986,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>251</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1022,19 @@
         <v>-43474.39359682539</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>249</v>
+      </c>
+      <c r="J19" t="n">
+        <v>251</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,10 +1063,14 @@
         <v>-43474.39359682539</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>250</v>
+      </c>
+      <c r="J20" t="n">
+        <v>250</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1078,11 +1100,19 @@
         <v>-46859.39179682539</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>250</v>
+      </c>
+      <c r="J21" t="n">
+        <v>250</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1141,19 @@
         <v>-46859.39179682539</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>249</v>
+      </c>
+      <c r="J22" t="n">
+        <v>250</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,10 +1182,14 @@
         <v>-45759.39179682539</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>249</v>
+      </c>
+      <c r="J23" t="n">
+        <v>249</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1177,15 +1219,19 @@
         <v>-45370.37189682539</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>250</v>
       </c>
       <c r="J24" t="n">
-        <v>250</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,13 +1260,13 @@
         <v>-46370.37189682539</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>251</v>
       </c>
       <c r="J25" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1255,56 +1301,56 @@
         <v>-46355.26279682539</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>249</v>
       </c>
       <c r="J26" t="n">
+        <v>249</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
         <v>250</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="C27" t="n">
+        <v>250</v>
+      </c>
+      <c r="D27" t="n">
+        <v>250</v>
+      </c>
+      <c r="E27" t="n">
+        <v>250</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1900.8415</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-46355.26279682539</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>250</v>
+      </c>
+      <c r="J27" t="n">
+        <v>249</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>250</v>
-      </c>
-      <c r="C27" t="n">
-        <v>250</v>
-      </c>
-      <c r="D27" t="n">
-        <v>250</v>
-      </c>
-      <c r="E27" t="n">
-        <v>250</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1900.8415</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-46355.26279682539</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>250</v>
-      </c>
-      <c r="J27" t="n">
-        <v>250</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1333,13 +1379,13 @@
         <v>-46120.98069682539</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>250</v>
       </c>
       <c r="J28" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1374,56 +1420,56 @@
         <v>-45120.98069682539</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>251</v>
       </c>
       <c r="J29" t="n">
-        <v>250</v>
-      </c>
-      <c r="K29" t="inlineStr">
+        <v>251</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>254</v>
+      </c>
+      <c r="C30" t="n">
+        <v>254</v>
+      </c>
+      <c r="D30" t="n">
+        <v>254</v>
+      </c>
+      <c r="E30" t="n">
+        <v>254</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.937007874015748</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-45117.04368895137</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>252</v>
+      </c>
+      <c r="J30" t="n">
+        <v>251</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>254</v>
-      </c>
-      <c r="C30" t="n">
-        <v>254</v>
-      </c>
-      <c r="D30" t="n">
-        <v>254</v>
-      </c>
-      <c r="E30" t="n">
-        <v>254</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3.937007874015748</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-45117.04368895137</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>252</v>
-      </c>
-      <c r="J30" t="n">
-        <v>252</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1452,13 +1498,13 @@
         <v>-38652.45508895137</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>254</v>
       </c>
       <c r="J31" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1493,56 +1539,56 @@
         <v>-38652.45508895137</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>255</v>
       </c>
       <c r="J32" t="n">
-        <v>252</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>255</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>257</v>
+      </c>
+      <c r="C33" t="n">
+        <v>257</v>
+      </c>
+      <c r="D33" t="n">
+        <v>257</v>
+      </c>
+      <c r="E33" t="n">
+        <v>257</v>
+      </c>
+      <c r="F33" t="n">
+        <v>19.2957</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-38633.15938895137</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>255</v>
+      </c>
+      <c r="J33" t="n">
+        <v>255</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>257</v>
-      </c>
-      <c r="C33" t="n">
-        <v>257</v>
-      </c>
-      <c r="D33" t="n">
-        <v>257</v>
-      </c>
-      <c r="E33" t="n">
-        <v>257</v>
-      </c>
-      <c r="F33" t="n">
-        <v>19.2957</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-38633.15938895137</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>255</v>
-      </c>
-      <c r="J33" t="n">
-        <v>255</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1613,14 +1659,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>255</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -2441,14 +2481,10 @@
         <v>-52623.89438895137</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>257</v>
-      </c>
-      <c r="J60" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2478,19 +2514,11 @@
         <v>-51843.89438895137</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>257</v>
-      </c>
-      <c r="J61" t="n">
-        <v>257</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2522,14 +2550,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>257</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2723,7 +2745,7 @@
         <v>-8533.053888951368</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2756,7 +2778,7 @@
         <v>1173.515511048632</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2855,7 +2877,7 @@
         <v>305.3481110486321</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2987,7 +3009,7 @@
         <v>7997.167111048632</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3119,7 +3141,7 @@
         <v>-17452.41188895137</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3152,7 +3174,7 @@
         <v>-17452.41188895137</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3515,7 +3537,7 @@
         <v>-12174.73148895137</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3548,7 +3570,7 @@
         <v>-7867.827688951369</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3581,7 +3603,7 @@
         <v>-7867.827688951369</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3680,7 +3702,7 @@
         <v>3140.619111048631</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3779,7 +3801,7 @@
         <v>-250.4073889513693</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3812,7 +3834,7 @@
         <v>-237.4073889513693</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3845,7 +3867,7 @@
         <v>-237.4073889513693</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3911,7 +3933,7 @@
         <v>3774.398711048631</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3944,7 +3966,7 @@
         <v>3774.398711048631</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4340,7 +4362,7 @@
         <v>18027.05101104863</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4373,7 +4395,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4406,7 +4428,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4439,7 +4461,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4472,7 +4494,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4505,7 +4527,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4538,7 +4560,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4571,7 +4593,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4604,7 +4626,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4637,7 +4659,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4670,7 +4692,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4703,7 +4725,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4736,7 +4758,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4769,7 +4791,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4802,7 +4824,7 @@
         <v>11273.86471104863</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4835,7 +4857,7 @@
         <v>11273.86471104863</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4868,7 +4890,7 @@
         <v>10973.86471104863</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4901,7 +4923,7 @@
         <v>11794.21961104863</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4934,7 +4956,7 @@
         <v>11795.21961104863</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4967,7 +4989,7 @@
         <v>13186.02381104863</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5000,7 +5022,7 @@
         <v>13186.02381104863</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5033,7 +5055,7 @@
         <v>22305.9890189623</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5066,7 +5088,7 @@
         <v>16974.3402189623</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5099,7 +5121,7 @@
         <v>17217.1120189623</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5132,7 +5154,7 @@
         <v>27309.7206189623</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5165,7 +5187,7 @@
         <v>39089.4481189623</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5198,7 +5220,7 @@
         <v>38986.1589189623</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5231,7 +5253,7 @@
         <v>38986.1589189623</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5264,7 +5286,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5297,7 +5319,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5330,7 +5352,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5341,6 +5363,6 @@
       <c r="M147" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest BAT.xlsx
+++ b/BackTest/2019-10-22 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -946,14 +946,10 @@
         <v>-40084.39359682539</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>251</v>
-      </c>
-      <c r="J17" t="n">
-        <v>251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -986,92 +982,86 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>251</v>
-      </c>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>250</v>
+      </c>
+      <c r="C19" t="n">
+        <v>250</v>
+      </c>
+      <c r="D19" t="n">
+        <v>250</v>
+      </c>
+      <c r="E19" t="n">
+        <v>250</v>
+      </c>
+      <c r="F19" t="n">
+        <v>40</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-43474.39359682539</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>249</v>
+      </c>
+      <c r="J19" t="n">
+        <v>249</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>250</v>
+      </c>
+      <c r="C20" t="n">
+        <v>250</v>
+      </c>
+      <c r="D20" t="n">
+        <v>250</v>
+      </c>
+      <c r="E20" t="n">
+        <v>250</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-43474.39359682539</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>250</v>
+      </c>
+      <c r="J20" t="n">
+        <v>249</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>250</v>
-      </c>
-      <c r="C19" t="n">
-        <v>250</v>
-      </c>
-      <c r="D19" t="n">
-        <v>250</v>
-      </c>
-      <c r="E19" t="n">
-        <v>250</v>
-      </c>
-      <c r="F19" t="n">
-        <v>40</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-43474.39359682539</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>249</v>
-      </c>
-      <c r="J19" t="n">
-        <v>251</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>250</v>
-      </c>
-      <c r="C20" t="n">
-        <v>250</v>
-      </c>
-      <c r="D20" t="n">
-        <v>250</v>
-      </c>
-      <c r="E20" t="n">
-        <v>250</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-43474.39359682539</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>250</v>
-      </c>
-      <c r="J20" t="n">
-        <v>250</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1106,7 +1096,7 @@
         <v>250</v>
       </c>
       <c r="J21" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1147,50 +1137,50 @@
         <v>249</v>
       </c>
       <c r="J22" t="n">
-        <v>250</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>249</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>250</v>
+      </c>
+      <c r="C23" t="n">
+        <v>250</v>
+      </c>
+      <c r="D23" t="n">
+        <v>250</v>
+      </c>
+      <c r="E23" t="n">
+        <v>250</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-45759.39179682539</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>249</v>
+      </c>
+      <c r="J23" t="n">
+        <v>249</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>250</v>
-      </c>
-      <c r="C23" t="n">
-        <v>250</v>
-      </c>
-      <c r="D23" t="n">
-        <v>250</v>
-      </c>
-      <c r="E23" t="n">
-        <v>250</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-45759.39179682539</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>249</v>
-      </c>
-      <c r="J23" t="n">
-        <v>249</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1266,50 +1256,50 @@
         <v>251</v>
       </c>
       <c r="J25" t="n">
+        <v>251</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>250</v>
+      </c>
+      <c r="C26" t="n">
+        <v>250</v>
+      </c>
+      <c r="D26" t="n">
+        <v>250</v>
+      </c>
+      <c r="E26" t="n">
+        <v>250</v>
+      </c>
+      <c r="F26" t="n">
+        <v>15.1091</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-46355.26279682539</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>249</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="J26" t="n">
+        <v>251</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>250</v>
-      </c>
-      <c r="C26" t="n">
-        <v>250</v>
-      </c>
-      <c r="D26" t="n">
-        <v>250</v>
-      </c>
-      <c r="E26" t="n">
-        <v>250</v>
-      </c>
-      <c r="F26" t="n">
-        <v>15.1091</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-46355.26279682539</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>249</v>
-      </c>
-      <c r="J26" t="n">
-        <v>249</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1344,7 +1334,7 @@
         <v>250</v>
       </c>
       <c r="J27" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1385,50 +1375,50 @@
         <v>250</v>
       </c>
       <c r="J28" t="n">
-        <v>249</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>250</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>252</v>
+      </c>
+      <c r="C29" t="n">
+        <v>252</v>
+      </c>
+      <c r="D29" t="n">
+        <v>252</v>
+      </c>
+      <c r="E29" t="n">
+        <v>252</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-45120.98069682539</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>251</v>
+      </c>
+      <c r="J29" t="n">
+        <v>250</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>252</v>
-      </c>
-      <c r="C29" t="n">
-        <v>252</v>
-      </c>
-      <c r="D29" t="n">
-        <v>252</v>
-      </c>
-      <c r="E29" t="n">
-        <v>252</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-45120.98069682539</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>251</v>
-      </c>
-      <c r="J29" t="n">
-        <v>251</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1463,7 +1453,7 @@
         <v>252</v>
       </c>
       <c r="J30" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1504,11 +1494,11 @@
         <v>254</v>
       </c>
       <c r="J31" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1539,15 +1529,17 @@
         <v>-38652.45508895137</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>255</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1576,17 +1568,15 @@
         <v>-38633.15938895137</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1621,11 +1611,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1659,8 +1649,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>250</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1692,8 +1688,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>250</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1725,8 +1727,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>250</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1758,8 +1766,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>250</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1791,8 +1805,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>250</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1824,8 +1844,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>250</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1857,8 +1883,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>250</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1890,8 +1922,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>250</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1923,8 +1961,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>250</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1956,8 +2000,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>250</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1989,8 +2039,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>250</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2022,8 +2078,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>250</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2055,8 +2117,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>250</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2088,8 +2156,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>250</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2121,8 +2195,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>250</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2154,8 +2234,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>250</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2187,8 +2273,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>250</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2220,8 +2312,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>250</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2253,8 +2351,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>250</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2286,8 +2390,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>250</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2319,8 +2429,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>250</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2352,8 +2468,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>250</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2385,8 +2507,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>250</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2418,8 +2546,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>250</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2451,8 +2585,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>250</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2484,8 +2624,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>250</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2517,8 +2663,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>250</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2550,8 +2702,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>250</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2583,8 +2741,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>250</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2616,8 +2780,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>250</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2646,15 +2816,23 @@
         <v>-18011.67158895137</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>250</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>1.055</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.020080321285141</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2679,7 +2857,7 @@
         <v>-18011.67158895137</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2712,7 +2890,7 @@
         <v>-4933.053888951368</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2745,7 +2923,7 @@
         <v>-8533.053888951368</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2778,7 +2956,7 @@
         <v>1173.515511048632</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2811,7 +2989,7 @@
         <v>198.3481110486321</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2844,7 +3022,7 @@
         <v>305.3481110486321</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2877,7 +3055,7 @@
         <v>305.3481110486321</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2943,7 +3121,7 @@
         <v>13867.42421104863</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2976,7 +3154,7 @@
         <v>7997.167111048632</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3009,7 +3187,7 @@
         <v>7997.167111048632</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3042,7 +3220,7 @@
         <v>2087.076411048633</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3075,7 +3253,7 @@
         <v>-21001.93088895137</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3108,7 +3286,7 @@
         <v>-19769.98298895137</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3405,7 +3583,7 @@
         <v>-13954.18818895137</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3438,7 +3616,7 @@
         <v>-13977.99188895137</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3669,7 +3847,7 @@
         <v>3140.619111048631</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3702,7 +3880,7 @@
         <v>3140.619111048631</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4362,7 +4540,7 @@
         <v>18027.05101104863</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4395,7 +4573,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4428,7 +4606,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4461,7 +4639,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4494,7 +4672,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4527,7 +4705,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4560,7 +4738,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4593,7 +4771,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4626,7 +4804,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4659,7 +4837,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4692,7 +4870,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4725,7 +4903,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4758,7 +4936,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4791,7 +4969,7 @@
         <v>10283.86471104863</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4824,7 +5002,7 @@
         <v>11273.86471104863</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4857,7 +5035,7 @@
         <v>11273.86471104863</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4890,7 +5068,7 @@
         <v>10973.86471104863</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4923,7 +5101,7 @@
         <v>11794.21961104863</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4956,7 +5134,7 @@
         <v>11795.21961104863</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4989,7 +5167,7 @@
         <v>13186.02381104863</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5022,7 +5200,7 @@
         <v>13186.02381104863</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5055,7 +5233,7 @@
         <v>22305.9890189623</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5088,7 +5266,7 @@
         <v>16974.3402189623</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5121,7 +5299,7 @@
         <v>17217.1120189623</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5154,7 +5332,7 @@
         <v>27309.7206189623</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5187,7 +5365,7 @@
         <v>39089.4481189623</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5220,7 +5398,7 @@
         <v>38986.1589189623</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5253,7 +5431,7 @@
         <v>38986.1589189623</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5286,7 +5464,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5319,7 +5497,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5352,7 +5530,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5363,6 +5541,6 @@
       <c r="M147" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-22 BackTest BAT.xlsx
+++ b/BackTest/2019-10-22 BackTest BAT.xlsx
@@ -1012,14 +1012,10 @@
         <v>-43474.39359682539</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>249</v>
-      </c>
-      <c r="J19" t="n">
-        <v>249</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1049,19 +1045,11 @@
         <v>-43474.39359682539</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>250</v>
-      </c>
-      <c r="J20" t="n">
-        <v>249</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1090,19 +1078,11 @@
         <v>-46859.39179682539</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>250</v>
-      </c>
-      <c r="J21" t="n">
-        <v>249</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1131,14 +1111,10 @@
         <v>-46859.39179682539</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>249</v>
-      </c>
-      <c r="J22" t="n">
-        <v>249</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1168,19 +1144,11 @@
         <v>-45759.39179682539</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>249</v>
-      </c>
-      <c r="J23" t="n">
-        <v>249</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1209,19 +1177,11 @@
         <v>-45370.37189682539</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>250</v>
-      </c>
-      <c r="J24" t="n">
-        <v>249</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1250,14 +1210,10 @@
         <v>-46370.37189682539</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>251</v>
-      </c>
-      <c r="J25" t="n">
-        <v>251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
@@ -1293,13 +1249,9 @@
         <v>249</v>
       </c>
       <c r="J26" t="n">
-        <v>251</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1334,7 +1286,7 @@
         <v>250</v>
       </c>
       <c r="J27" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1375,9 +1327,13 @@
         <v>250</v>
       </c>
       <c r="J28" t="n">
-        <v>250</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+        <v>249</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1412,13 +1368,9 @@
         <v>251</v>
       </c>
       <c r="J29" t="n">
-        <v>250</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1453,7 +1405,7 @@
         <v>252</v>
       </c>
       <c r="J30" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1494,11 +1446,11 @@
         <v>254</v>
       </c>
       <c r="J31" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -1529,17 +1481,15 @@
         <v>-38652.45508895137</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>255</v>
+      </c>
       <c r="J32" t="n">
-        <v>250</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1572,11 +1522,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L33" t="n">
@@ -1611,11 +1561,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1649,14 +1599,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>250</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1688,14 +1632,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>250</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1727,14 +1665,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>250</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1766,14 +1698,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>250</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1805,14 +1731,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>250</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1844,14 +1764,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>250</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1883,14 +1797,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>250</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1922,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>250</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1961,14 +1863,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>250</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2000,14 +1896,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>250</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2039,14 +1929,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>250</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2078,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>250</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2117,14 +1995,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>250</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2156,14 +2028,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>250</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2195,14 +2061,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>250</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2234,14 +2094,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>250</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2273,14 +2127,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>250</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2312,14 +2160,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>250</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2351,14 +2193,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>250</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2390,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>250</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2429,14 +2259,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>250</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2468,14 +2292,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>250</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2507,14 +2325,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>250</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2546,14 +2358,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>250</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2585,14 +2391,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>250</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2624,14 +2424,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>250</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2660,17 +2454,15 @@
         <v>-51843.89438895137</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>257</v>
+      </c>
       <c r="J61" t="n">
-        <v>250</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2699,15 +2491,17 @@
         <v>-51843.89438895137</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>260</v>
+      </c>
       <c r="J62" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2742,11 +2536,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2780,14 +2574,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>250</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2816,23 +2604,15 @@
         <v>-18011.67158895137</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>250</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>1.055</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.020080321285141</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2857,7 +2637,7 @@
         <v>-18011.67158895137</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2890,7 +2670,7 @@
         <v>-4933.053888951368</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2923,7 +2703,7 @@
         <v>-8533.053888951368</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2956,7 +2736,7 @@
         <v>1173.515511048632</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2989,7 +2769,7 @@
         <v>198.3481110486321</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3022,7 +2802,7 @@
         <v>305.3481110486321</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3055,7 +2835,7 @@
         <v>305.3481110486321</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3121,7 +2901,7 @@
         <v>13867.42421104863</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3154,7 +2934,7 @@
         <v>7997.167111048632</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3187,7 +2967,7 @@
         <v>7997.167111048632</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3220,7 +3000,7 @@
         <v>2087.076411048633</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3253,7 +3033,7 @@
         <v>-21001.93088895137</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3286,7 +3066,7 @@
         <v>-19769.98298895137</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3583,7 +3363,7 @@
         <v>-13954.18818895137</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3616,7 +3396,7 @@
         <v>-13977.99188895137</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3847,7 +3627,7 @@
         <v>3140.619111048631</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3880,7 +3660,7 @@
         <v>3140.619111048631</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -5365,7 +5145,7 @@
         <v>39089.4481189623</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5398,7 +5178,7 @@
         <v>38986.1589189623</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5431,7 +5211,7 @@
         <v>38986.1589189623</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5464,7 +5244,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5497,7 +5277,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5530,7 +5310,7 @@
         <v>61301.6974189623</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>

--- a/BackTest/2019-10-22 BackTest BAT.xlsx
+++ b/BackTest/2019-10-22 BackTest BAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M147"/>
+  <dimension ref="A1:L147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>3394.6594</v>
       </c>
       <c r="G2" t="n">
-        <v>-29693.1141</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3.937007874015748</v>
       </c>
       <c r="G3" t="n">
-        <v>-29693.1141</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>366.368</v>
       </c>
       <c r="G4" t="n">
-        <v>-30059.48209999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>3240</v>
       </c>
       <c r="G5" t="n">
-        <v>-30059.48209999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>11535.9614</v>
       </c>
       <c r="G6" t="n">
-        <v>-41595.44349999999</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>8469.9439</v>
       </c>
       <c r="G7" t="n">
-        <v>-33125.4996</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1010</v>
       </c>
       <c r="G8" t="n">
-        <v>-34135.4996</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>550</v>
       </c>
       <c r="G9" t="n">
-        <v>-34685.4996</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>526.3809</v>
       </c>
       <c r="G10" t="n">
-        <v>-34685.4996</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>4259.1263</v>
       </c>
       <c r="G11" t="n">
-        <v>-34685.4996</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>3472.6208</v>
       </c>
       <c r="G12" t="n">
-        <v>-34685.4996</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1615.384</v>
       </c>
       <c r="G13" t="n">
-        <v>-36300.88359999999</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>4053.444903174603</v>
       </c>
       <c r="G14" t="n">
-        <v>-32247.43869682539</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1693.6253</v>
       </c>
       <c r="G15" t="n">
-        <v>-33941.06399682539</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>0.0001</v>
       </c>
       <c r="G16" t="n">
-        <v>-33941.06399682539</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>6143.3296</v>
       </c>
       <c r="G17" t="n">
-        <v>-40084.39359682539</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>3430</v>
       </c>
       <c r="G18" t="n">
-        <v>-43514.39359682539</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>40</v>
       </c>
       <c r="G19" t="n">
-        <v>-43474.39359682539</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>5.08</v>
       </c>
       <c r="G20" t="n">
-        <v>-43474.39359682539</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>3384.9982</v>
       </c>
       <c r="G21" t="n">
-        <v>-46859.39179682539</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>9958.619500000001</v>
       </c>
       <c r="G22" t="n">
-        <v>-46859.39179682539</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1100</v>
       </c>
       <c r="G23" t="n">
-        <v>-45759.39179682539</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>389.0199</v>
       </c>
       <c r="G24" t="n">
-        <v>-45370.37189682539</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,19 @@
         <v>1000</v>
       </c>
       <c r="G25" t="n">
-        <v>-46370.37189682539</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="I25" t="n">
+        <v>251</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,22 +1167,23 @@
         <v>15.1091</v>
       </c>
       <c r="G26" t="n">
-        <v>-46355.26279682539</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="I26" t="n">
-        <v>249</v>
-      </c>
-      <c r="J26" t="n">
-        <v>249</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1277,26 +1205,23 @@
         <v>1900.8415</v>
       </c>
       <c r="G27" t="n">
-        <v>-46355.26279682539</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="I27" t="n">
-        <v>250</v>
-      </c>
-      <c r="J27" t="n">
-        <v>249</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>251</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1318,26 +1243,19 @@
         <v>234.2821</v>
       </c>
       <c r="G28" t="n">
-        <v>-46120.98069682539</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="I28" t="n">
         <v>250</v>
       </c>
-      <c r="J28" t="n">
-        <v>249</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1359,22 +1277,23 @@
         <v>1000</v>
       </c>
       <c r="G29" t="n">
-        <v>-45120.98069682539</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="I29" t="n">
-        <v>251</v>
-      </c>
-      <c r="J29" t="n">
-        <v>251</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1396,26 +1315,23 @@
         <v>3.937007874015748</v>
       </c>
       <c r="G30" t="n">
-        <v>-45117.04368895137</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="I30" t="n">
-        <v>252</v>
-      </c>
-      <c r="J30" t="n">
-        <v>251</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>250</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1437,26 +1353,23 @@
         <v>6464.5886</v>
       </c>
       <c r="G31" t="n">
-        <v>-38652.45508895137</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="I31" t="n">
-        <v>254</v>
-      </c>
-      <c r="J31" t="n">
-        <v>251</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1478,22 +1391,21 @@
         <v>46</v>
       </c>
       <c r="G32" t="n">
-        <v>-38652.45508895137</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>255</v>
-      </c>
-      <c r="J32" t="n">
-        <v>255</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1515,24 +1427,21 @@
         <v>19.2957</v>
       </c>
       <c r="G33" t="n">
-        <v>-38633.15938895137</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>255</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>250</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1554,24 +1463,21 @@
         <v>3386.1727</v>
       </c>
       <c r="G34" t="n">
-        <v>-42019.33208895137</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>255</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>250</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1593,18 +1499,21 @@
         <v>37.9803</v>
       </c>
       <c r="G35" t="n">
-        <v>-41981.35178895137</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>250</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1626,18 +1535,21 @@
         <v>3140.0581</v>
       </c>
       <c r="G36" t="n">
-        <v>-38841.29368895137</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>250</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1659,18 +1571,21 @@
         <v>9732.184300000001</v>
       </c>
       <c r="G37" t="n">
-        <v>-48573.47798895137</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>250</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1692,18 +1607,21 @@
         <v>99.75</v>
       </c>
       <c r="G38" t="n">
-        <v>-48573.47798895137</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>250</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1725,18 +1643,21 @@
         <v>39.0054</v>
       </c>
       <c r="G39" t="n">
-        <v>-48534.47258895136</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>250</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1758,18 +1679,21 @@
         <v>3140.0581</v>
       </c>
       <c r="G40" t="n">
-        <v>-51674.53068895137</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>250</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1791,18 +1715,21 @@
         <v>1016</v>
       </c>
       <c r="G41" t="n">
-        <v>-50658.53068895137</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>250</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1824,18 +1751,21 @@
         <v>234.1599</v>
       </c>
       <c r="G42" t="n">
-        <v>-50658.53068895137</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>250</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1857,18 +1787,21 @@
         <v>1767</v>
       </c>
       <c r="G43" t="n">
-        <v>-50658.53068895137</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>250</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1890,18 +1823,21 @@
         <v>2755.3248</v>
       </c>
       <c r="G44" t="n">
-        <v>-50658.53068895137</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>250</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1923,18 +1859,21 @@
         <v>2063.5</v>
       </c>
       <c r="G45" t="n">
-        <v>-50658.53068895137</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>250</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1956,18 +1895,21 @@
         <v>11718.4085</v>
       </c>
       <c r="G46" t="n">
-        <v>-50658.53068895137</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>250</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1989,18 +1931,21 @@
         <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>-50647.53068895137</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>250</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2022,18 +1967,21 @@
         <v>1445.6995</v>
       </c>
       <c r="G48" t="n">
-        <v>-52093.23018895137</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>250</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2055,18 +2003,21 @@
         <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>-52104.23018895137</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>250</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2088,18 +2039,21 @@
         <v>605.6423</v>
       </c>
       <c r="G50" t="n">
-        <v>-51498.58788895137</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>250</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2121,18 +2075,21 @@
         <v>3026.9348</v>
       </c>
       <c r="G51" t="n">
-        <v>-48471.65308895137</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>250</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2154,18 +2111,21 @@
         <v>802.5363</v>
       </c>
       <c r="G52" t="n">
-        <v>-48471.65308895137</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>250</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2187,18 +2147,21 @@
         <v>2099.9808</v>
       </c>
       <c r="G53" t="n">
-        <v>-48471.65308895137</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>250</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2220,18 +2183,21 @@
         <v>30</v>
       </c>
       <c r="G54" t="n">
-        <v>-48501.65308895137</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>250</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2253,18 +2219,21 @@
         <v>1095.3065</v>
       </c>
       <c r="G55" t="n">
-        <v>-49596.95958895137</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>250</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2286,18 +2255,21 @@
         <v>3026.9348</v>
       </c>
       <c r="G56" t="n">
-        <v>-52623.89438895137</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>250</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2319,18 +2291,21 @@
         <v>3137.6287</v>
       </c>
       <c r="G57" t="n">
-        <v>-52623.89438895137</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>250</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2352,18 +2327,21 @@
         <v>2011</v>
       </c>
       <c r="G58" t="n">
-        <v>-52623.89438895137</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>250</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2385,18 +2363,21 @@
         <v>233</v>
       </c>
       <c r="G59" t="n">
-        <v>-52623.89438895137</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>250</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2418,18 +2399,21 @@
         <v>3218.6104</v>
       </c>
       <c r="G60" t="n">
-        <v>-52623.89438895137</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>250</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2451,22 +2435,21 @@
         <v>780</v>
       </c>
       <c r="G61" t="n">
-        <v>-51843.89438895137</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>257</v>
-      </c>
-      <c r="J61" t="n">
-        <v>257</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2488,26 +2471,21 @@
         <v>2135.6551</v>
       </c>
       <c r="G62" t="n">
-        <v>-51843.89438895137</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>260</v>
-      </c>
-      <c r="J62" t="n">
-        <v>257</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2529,24 +2507,21 @@
         <v>5839.0711</v>
       </c>
       <c r="G63" t="n">
-        <v>-46004.82328895137</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>257</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>250</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2568,18 +2543,21 @@
         <v>27993.1517</v>
       </c>
       <c r="G64" t="n">
-        <v>-18011.67158895137</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>250</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2601,18 +2579,21 @@
         <v>8000</v>
       </c>
       <c r="G65" t="n">
-        <v>-18011.67158895137</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>250</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2634,18 +2615,21 @@
         <v>4626.2351</v>
       </c>
       <c r="G66" t="n">
-        <v>-18011.67158895137</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>250</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2667,18 +2651,21 @@
         <v>13078.6177</v>
       </c>
       <c r="G67" t="n">
-        <v>-4933.053888951368</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>250</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2700,18 +2687,21 @@
         <v>3600</v>
       </c>
       <c r="G68" t="n">
-        <v>-8533.053888951368</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>250</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2733,18 +2723,21 @@
         <v>9706.5694</v>
       </c>
       <c r="G69" t="n">
-        <v>1173.515511048632</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>250</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2766,18 +2759,21 @@
         <v>975.1674</v>
       </c>
       <c r="G70" t="n">
-        <v>198.3481110486321</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>250</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2799,18 +2795,21 @@
         <v>107</v>
       </c>
       <c r="G71" t="n">
-        <v>305.3481110486321</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>250</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2832,18 +2831,21 @@
         <v>605.6423</v>
       </c>
       <c r="G72" t="n">
-        <v>305.3481110486321</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>250</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2865,18 +2867,21 @@
         <v>13562.0761</v>
       </c>
       <c r="G73" t="n">
-        <v>13867.42421104863</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>250</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2898,18 +2903,21 @@
         <v>1414.6421</v>
       </c>
       <c r="G74" t="n">
-        <v>13867.42421104863</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>250</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2931,18 +2939,21 @@
         <v>5870.2571</v>
       </c>
       <c r="G75" t="n">
-        <v>7997.167111048632</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>250</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2964,18 +2975,21 @@
         <v>5251.7265</v>
       </c>
       <c r="G76" t="n">
-        <v>7997.167111048632</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>250</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2997,18 +3011,21 @@
         <v>5910.0907</v>
       </c>
       <c r="G77" t="n">
-        <v>2087.076411048633</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>250</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3030,18 +3047,21 @@
         <v>23089.0073</v>
       </c>
       <c r="G78" t="n">
-        <v>-21001.93088895137</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>250</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3063,18 +3083,21 @@
         <v>1231.9479</v>
       </c>
       <c r="G79" t="n">
-        <v>-19769.98298895137</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>250</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3096,18 +3119,21 @@
         <v>2317.5711</v>
       </c>
       <c r="G80" t="n">
-        <v>-17452.41188895137</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>250</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3129,18 +3155,21 @@
         <v>1415.7024</v>
       </c>
       <c r="G81" t="n">
-        <v>-17452.41188895137</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>250</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3162,18 +3191,21 @@
         <v>1521.5364</v>
       </c>
       <c r="G82" t="n">
-        <v>-15930.87548895137</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>250</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3195,18 +3227,21 @@
         <v>3318.4093</v>
       </c>
       <c r="G83" t="n">
-        <v>-19249.28478895137</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>250</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3228,18 +3263,21 @@
         <v>2972.4169</v>
       </c>
       <c r="G84" t="n">
-        <v>-16276.86788895137</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>250</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3261,18 +3299,21 @@
         <v>1277.8382</v>
       </c>
       <c r="G85" t="n">
-        <v>-14999.02968895137</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>250</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3294,18 +3335,21 @@
         <v>118.0297</v>
       </c>
       <c r="G86" t="n">
-        <v>-15117.05938895137</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>250</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3327,18 +3371,21 @@
         <v>1274.6436</v>
       </c>
       <c r="G87" t="n">
-        <v>-16391.70298895137</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>250</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3360,18 +3407,21 @@
         <v>2437.5148</v>
       </c>
       <c r="G88" t="n">
-        <v>-13954.18818895137</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>250</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3393,18 +3443,21 @@
         <v>23.8037</v>
       </c>
       <c r="G89" t="n">
-        <v>-13977.99188895137</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>250</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3426,18 +3479,21 @@
         <v>209.6731</v>
       </c>
       <c r="G90" t="n">
-        <v>-13768.31878895137</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>250</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3459,18 +3515,21 @@
         <v>2070.8572</v>
       </c>
       <c r="G91" t="n">
-        <v>-13768.31878895137</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>250</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3492,18 +3551,21 @@
         <v>1593.5873</v>
       </c>
       <c r="G92" t="n">
-        <v>-12174.73148895137</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>250</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3525,18 +3587,21 @@
         <v>4306.9038</v>
       </c>
       <c r="G93" t="n">
-        <v>-7867.827688951369</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>250</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3558,18 +3623,21 @@
         <v>1077.6849</v>
       </c>
       <c r="G94" t="n">
-        <v>-7867.827688951369</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>250</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3591,18 +3659,21 @@
         <v>127.729</v>
       </c>
       <c r="G95" t="n">
-        <v>-7867.827688951369</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>250</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3624,18 +3695,21 @@
         <v>11008.4468</v>
       </c>
       <c r="G96" t="n">
-        <v>3140.619111048631</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>250</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3657,18 +3731,21 @@
         <v>1048.8278</v>
       </c>
       <c r="G97" t="n">
-        <v>3140.619111048631</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>250</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3690,18 +3767,21 @@
         <v>133.2689</v>
       </c>
       <c r="G98" t="n">
-        <v>3140.619111048631</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>250</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3723,18 +3803,21 @@
         <v>8358.771000000001</v>
       </c>
       <c r="G99" t="n">
-        <v>3140.619111048631</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>250</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3756,18 +3839,21 @@
         <v>3391.0265</v>
       </c>
       <c r="G100" t="n">
-        <v>-250.4073889513693</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>250</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3789,18 +3875,21 @@
         <v>13</v>
       </c>
       <c r="G101" t="n">
-        <v>-237.4073889513693</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>250</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3822,18 +3911,21 @@
         <v>21.242</v>
       </c>
       <c r="G102" t="n">
-        <v>-237.4073889513693</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>250</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3855,18 +3947,21 @@
         <v>103.2346</v>
       </c>
       <c r="G103" t="n">
-        <v>-237.4073889513693</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>250</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3888,18 +3983,21 @@
         <v>4011.8061</v>
       </c>
       <c r="G104" t="n">
-        <v>3774.398711048631</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>250</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3921,18 +4019,21 @@
         <v>8122.8834</v>
       </c>
       <c r="G105" t="n">
-        <v>3774.398711048631</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>250</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3954,18 +4055,21 @@
         <v>600.0974</v>
       </c>
       <c r="G106" t="n">
-        <v>3774.398711048631</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>250</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3987,18 +4091,21 @@
         <v>7771.2602</v>
       </c>
       <c r="G107" t="n">
-        <v>11545.65891104863</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>250</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4020,18 +4127,21 @@
         <v>8125.9938</v>
       </c>
       <c r="G108" t="n">
-        <v>19671.65271104863</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>250</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4053,18 +4163,21 @@
         <v>168</v>
       </c>
       <c r="G109" t="n">
-        <v>19671.65271104863</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>250</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4086,18 +4199,21 @@
         <v>2410</v>
       </c>
       <c r="G110" t="n">
-        <v>19671.65271104863</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>250</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4119,18 +4235,21 @@
         <v>7375.1525</v>
       </c>
       <c r="G111" t="n">
-        <v>19671.65271104863</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>250</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4152,18 +4271,21 @@
         <v>3662.5804</v>
       </c>
       <c r="G112" t="n">
-        <v>19671.65271104863</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>250</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4185,18 +4307,21 @@
         <v>21.3369</v>
       </c>
       <c r="G113" t="n">
-        <v>19671.65271104863</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>250</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4218,18 +4343,21 @@
         <v>273</v>
       </c>
       <c r="G114" t="n">
-        <v>19671.65271104863</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>250</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4251,18 +4379,21 @@
         <v>1644.6017</v>
       </c>
       <c r="G115" t="n">
-        <v>18027.05101104863</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>250</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4284,18 +4415,21 @@
         <v>2018.53</v>
       </c>
       <c r="G116" t="n">
-        <v>18027.05101104863</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>250</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4317,18 +4451,21 @@
         <v>5744.0627</v>
       </c>
       <c r="G117" t="n">
-        <v>18027.05101104863</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>250</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4350,18 +4487,21 @@
         <v>7743.1863</v>
       </c>
       <c r="G118" t="n">
-        <v>10283.86471104863</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>250</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4383,18 +4523,21 @@
         <v>39.5534</v>
       </c>
       <c r="G119" t="n">
-        <v>10283.86471104863</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>250</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4416,18 +4559,21 @@
         <v>15586.4626</v>
       </c>
       <c r="G120" t="n">
-        <v>10283.86471104863</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>250</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4449,18 +4595,21 @@
         <v>10885.0605</v>
       </c>
       <c r="G121" t="n">
-        <v>10283.86471104863</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>250</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4482,18 +4631,21 @@
         <v>2852.7421</v>
       </c>
       <c r="G122" t="n">
-        <v>10283.86471104863</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>250</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4515,18 +4667,21 @@
         <v>150.2079</v>
       </c>
       <c r="G123" t="n">
-        <v>10283.86471104863</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>250</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4548,18 +4703,21 @@
         <v>254.7669</v>
       </c>
       <c r="G124" t="n">
-        <v>10283.86471104863</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>250</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4581,18 +4739,21 @@
         <v>989</v>
       </c>
       <c r="G125" t="n">
-        <v>10283.86471104863</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>250</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4614,18 +4775,21 @@
         <v>3671.1985</v>
       </c>
       <c r="G126" t="n">
-        <v>10283.86471104863</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>250</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4647,18 +4811,21 @@
         <v>3670</v>
       </c>
       <c r="G127" t="n">
-        <v>10283.86471104863</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>250</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4680,18 +4847,21 @@
         <v>8.6212</v>
       </c>
       <c r="G128" t="n">
-        <v>10283.86471104863</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>250</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4713,18 +4883,21 @@
         <v>397.2297</v>
       </c>
       <c r="G129" t="n">
-        <v>10283.86471104863</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>250</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4746,18 +4919,21 @@
         <v>420.2969</v>
       </c>
       <c r="G130" t="n">
-        <v>10283.86471104863</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>250</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4779,18 +4955,21 @@
         <v>990</v>
       </c>
       <c r="G131" t="n">
-        <v>11273.86471104863</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>250</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4812,18 +4991,21 @@
         <v>6142.8494</v>
       </c>
       <c r="G132" t="n">
-        <v>11273.86471104863</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>250</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4845,18 +5027,21 @@
         <v>300</v>
       </c>
       <c r="G133" t="n">
-        <v>10973.86471104863</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>250</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4878,18 +5063,21 @@
         <v>820.3549</v>
       </c>
       <c r="G134" t="n">
-        <v>11794.21961104863</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>250</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4911,18 +5099,21 @@
         <v>1</v>
       </c>
       <c r="G135" t="n">
-        <v>11795.21961104863</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>250</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4944,18 +5135,21 @@
         <v>1390.8042</v>
       </c>
       <c r="G136" t="n">
-        <v>13186.02381104863</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>250</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4977,18 +5171,21 @@
         <v>7339.1958</v>
       </c>
       <c r="G137" t="n">
-        <v>13186.02381104863</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>250</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5010,18 +5207,21 @@
         <v>9119.965207913669</v>
       </c>
       <c r="G138" t="n">
-        <v>22305.9890189623</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>250</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5043,18 +5243,21 @@
         <v>5331.6488</v>
       </c>
       <c r="G139" t="n">
-        <v>16974.3402189623</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>250</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5076,18 +5279,21 @@
         <v>242.7718</v>
       </c>
       <c r="G140" t="n">
-        <v>17217.1120189623</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>250</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5109,18 +5315,23 @@
         <v>10092.6086</v>
       </c>
       <c r="G141" t="n">
-        <v>27309.7206189623</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>250</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1.115</v>
+      </c>
       <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>1.020080321285141</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5142,18 +5353,15 @@
         <v>11779.7275</v>
       </c>
       <c r="G142" t="n">
-        <v>39089.4481189623</v>
-      </c>
-      <c r="H142" t="n">
         <v>2</v>
       </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5175,18 +5383,15 @@
         <v>103.2892</v>
       </c>
       <c r="G143" t="n">
-        <v>38986.1589189623</v>
-      </c>
-      <c r="H143" t="n">
         <v>2</v>
       </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5208,18 +5413,15 @@
         <v>1024.9427</v>
       </c>
       <c r="G144" t="n">
-        <v>38986.1589189623</v>
-      </c>
-      <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5241,18 +5443,15 @@
         <v>22315.5385</v>
       </c>
       <c r="G145" t="n">
-        <v>61301.6974189623</v>
-      </c>
-      <c r="H145" t="n">
         <v>2</v>
       </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5274,18 +5473,15 @@
         <v>2867.3834</v>
       </c>
       <c r="G146" t="n">
-        <v>61301.6974189623</v>
-      </c>
-      <c r="H146" t="n">
         <v>2</v>
       </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5307,18 +5503,15 @@
         <v>15664.4054</v>
       </c>
       <c r="G147" t="n">
-        <v>61301.6974189623</v>
-      </c>
-      <c r="H147" t="n">
         <v>2</v>
       </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
